--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$I$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>1 PCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMBAGA </t>
+  </si>
+  <si>
+    <t>2,6mm</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -249,11 +255,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +301,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,17 +331,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,7 +648,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,66 +663,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -754,7 +787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -763,366 +796,407 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="6">
         <v>45141</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>14.83</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>45145</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>16.72</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>40.82</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>45145</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>77.88</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45.6</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>45145</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>15.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>45145</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3">
+      <c r="F10" s="9"/>
+      <c r="G10" s="3">
         <v>15.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>25</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>45145</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3">
+      <c r="F11" s="9"/>
+      <c r="G11" s="3">
         <v>20.53</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>25</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>45145</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E12" s="9"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>0.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>25</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>45145</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="E13" s="9"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>0.3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>25</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>45145</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>241.65</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>250</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>45145</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>23.68</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>27.8</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="6">
         <v>45145</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>25.61</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H16" s="10">
         <v>28.11</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="21">
         <v>45146</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45147</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11">
+        <v>502</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B4:H5"/>
-  <mergeCells count="9">
+  <autoFilter ref="B4:I5"/>
+  <mergeCells count="10">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -136,7 +136,28 @@
     <t xml:space="preserve">TEMBAGA </t>
   </si>
   <si>
-    <t>2,6mm</t>
+    <t>W01-03000026</t>
+  </si>
+  <si>
+    <t>5 ROLL</t>
+  </si>
+  <si>
+    <t>NO JO</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>SISA (kg)</t>
+  </si>
+  <si>
+    <t>0,2 A</t>
+  </si>
+  <si>
+    <t>W01-03000020</t>
+  </si>
+  <si>
+    <t>0,16 A</t>
   </si>
 </sst>
 </file>
@@ -146,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +191,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,14 +218,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,11 +298,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,9 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,10 +369,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,18 +397,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,66 +804,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -787,158 +928,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45141</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>14.83</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="28"/>
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="43">
         <v>45145</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="48">
+        <v>20230805001</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>16.72</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>40.82</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="29">
+        <f>SUM(H7-G7)</f>
+        <v>24.1</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -954,22 +1110,21 @@
       <c r="H8" s="3">
         <v>45.6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3"/>
@@ -979,226 +1134,1062 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="29">
+        <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3">
         <v>15.5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="29">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3">
         <v>20.53</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="29">
+        <f t="shared" si="0"/>
+        <v>4.4699999999999989</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>0.3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="29">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>0.3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="29">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>241.65</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="29">
+        <f t="shared" si="0"/>
+        <v>8.3499999999999943</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
-        <v>45145</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>23.68</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>27.8</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="I15" s="29">
+        <f t="shared" si="0"/>
+        <v>4.120000000000001</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="6">
-        <v>45145</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>25.61</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>28.11</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="29">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="11">
         <v>45146</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="43">
         <v>45147</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="24">
+        <v>20230809001</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G18" s="10">
+        <v>502</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="37">
+        <v>20230809003</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.64</v>
+      </c>
+      <c r="H19" s="3">
+        <v>104.37</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="11">
-        <v>502</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="7">
+        <v>37.64</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44.1</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="G21" s="7">
+        <v>15.13</v>
+      </c>
+      <c r="H21" s="3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="37">
+        <v>20230809002</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5.95</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="37">
+        <v>20230809004</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7">
+        <v>127.75</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>9</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7">
+        <v>109.9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>143.58000000000001</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>10</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="37">
+        <v>20230809005</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7">
+        <v>38.25</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>11</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7">
+        <v>32.85</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>12</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="37">
+        <v>20230809006</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="G29" s="7">
+        <v>15.49</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>13</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>1</v>
+      </c>
+      <c r="B31" s="22">
+        <v>45152</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="21">
+        <v>23.68</v>
+      </c>
+      <c r="I31" s="31">
+        <f>SUM(H31-G31)</f>
+        <v>23.68</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="43">
+        <v>45154</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="10">
+        <v>35.42</v>
+      </c>
+      <c r="I32" s="32">
+        <f t="shared" ref="I32:I34" si="1">SUM(H32-G32)</f>
+        <v>35.42</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="37">
+        <v>20230809003</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H33" s="7">
+        <v>25</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" si="1"/>
+        <v>15.96</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H34" s="7">
+        <v>25</v>
+      </c>
+      <c r="I34" s="33">
+        <f t="shared" si="1"/>
+        <v>15.96</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H35" s="7">
+        <v>25</v>
+      </c>
+      <c r="I35" s="33">
+        <f>SUM(H35-G35)</f>
+        <v>16.880000000000003</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>5</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="26">
+        <f>SUM(I12-G36)</f>
+        <v>24.61</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>6</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="25">
+        <f>SUM(I13-G37)</f>
+        <v>24.61</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7">
+        <v>160.44</v>
+      </c>
+      <c r="H38" s="27">
+        <v>225</v>
+      </c>
+      <c r="I38" s="25">
+        <f>I14-G38+H38</f>
+        <v>72.91</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>8</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="40">
+        <v>20230809002</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="25">
+        <f>I33-G39</f>
+        <v>14.540000000000001</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>9</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="25">
+        <f>I34-G40</f>
+        <v>14.540000000000001</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>10</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="25">
+        <f>I35-G41</f>
+        <v>15.590000000000003</v>
+      </c>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>11</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="25">
+        <f>I36-G42</f>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>12</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="25">
+        <f>I37-G43</f>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>13</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="7">
+        <v>24.15</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="25">
+        <f>I38-G44</f>
+        <v>48.76</v>
+      </c>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>14</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="40">
+        <v>20230809006</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="25">
+        <f>I39-G45</f>
+        <v>11.46</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>15</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="25">
+        <f>I40-G46</f>
+        <v>11.46</v>
+      </c>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>16</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7">
+        <v>4.09</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="25">
+        <f>I41-G47</f>
+        <v>11.500000000000004</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>17</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="25">
+        <f>I42-G48</f>
+        <v>24.549999999999997</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>18</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="25">
+        <f>I43-G49</f>
+        <v>24.549999999999997</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>19</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7">
+        <v>48.13</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="36">
+        <f>I44-G50</f>
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="J50" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I5"/>
-  <mergeCells count="10">
+  <autoFilter ref="B4:J5"/>
+  <mergeCells count="23">
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -151,13 +151,19 @@
     <t>SISA (kg)</t>
   </si>
   <si>
-    <t>0,2 A</t>
-  </si>
-  <si>
     <t>W01-03000020</t>
   </si>
   <si>
     <t>0,16 A</t>
+  </si>
+  <si>
+    <t>0,20 A</t>
+  </si>
+  <si>
+    <t>M02-05935003-TW</t>
+  </si>
+  <si>
+    <t>SR-PVC</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,11 +341,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +400,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,99 +452,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,66 +854,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -928,10 +978,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,87 +999,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1051,7 +1102,7 @@
       <c r="H6" s="6">
         <v>14.83</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1060,10 +1111,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="36">
         <v>45145</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="33">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1081,7 +1132,7 @@
       <c r="H7" s="4">
         <v>40.82</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <f>SUM(H7-G7)</f>
         <v>24.1</v>
       </c>
@@ -1093,8 +1144,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1161,7 @@
       <c r="H8" s="3">
         <v>45.6</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1119,8 +1170,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1185,7 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="23">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
@@ -1144,8 +1195,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1210,7 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -1169,8 +1220,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1235,7 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="23">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
@@ -1194,8 +1245,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1258,7 @@
       <c r="H12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="23">
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
@@ -1217,8 +1268,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1281,7 @@
       <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="23">
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
@@ -1240,8 +1291,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1306,7 @@
       <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="23">
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
@@ -1265,8 +1316,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1331,7 @@
       <c r="H15" s="7">
         <v>27.8</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>4.120000000000001</v>
       </c>
@@ -1290,8 +1341,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1358,7 @@
       <c r="H16" s="9">
         <v>28.11</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1330,7 +1381,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="14" t="s">
         <v>36</v>
       </c>
@@ -1339,10 +1390,10 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="36">
         <v>45147</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <v>20230809001</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1358,15 +1409,15 @@
         <v>502</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="37">
+      <c r="B19" s="37"/>
+      <c r="C19" s="39">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1382,17 +1433,20 @@
         <v>6.64</v>
       </c>
       <c r="H19" s="3">
-        <v>104.37</v>
-      </c>
-      <c r="I19" s="34"/>
+        <v>165.47</v>
+      </c>
+      <c r="I19" s="27">
+        <f>H19-G19</f>
+        <v>158.83000000000001</v>
+      </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7">
         <v>37.64</v>
@@ -1408,15 +1462,18 @@
       <c r="H20" s="3">
         <v>44.1</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="27">
+        <f>H20-G20</f>
+        <v>6.4600000000000009</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1432,15 +1489,18 @@
       <c r="H21" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="27">
+        <f>H21-G21</f>
+        <v>20.57</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="37">
+      <c r="B22" s="37"/>
+      <c r="C22" s="39">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1455,18 +1515,21 @@
       <c r="G22" s="7">
         <v>1.05</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="34"/>
+      <c r="H22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="27">
+        <f>I19-G22</f>
+        <v>157.78</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1474,23 +1537,26 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7">
         <v>5.95</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="34"/>
+      <c r="H23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="27">
+        <f>I20-G23</f>
+        <v>0.51000000000000068</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1503,18 +1569,21 @@
       <c r="G24" s="7">
         <v>2.39</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="34"/>
+      <c r="H24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="27">
+        <f>I21-G24</f>
+        <v>18.18</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="37">
+      <c r="B25" s="37"/>
+      <c r="C25" s="39">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1529,26 +1598,29 @@
       <c r="G25" s="7">
         <v>127.75</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="34"/>
+      <c r="H25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="27">
+        <f>I22-G25</f>
+        <v>30.03</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G26" s="7">
         <v>109.9</v>
@@ -1556,15 +1628,18 @@
       <c r="H26" s="3">
         <v>143.58000000000001</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="27">
+        <f>H26-G26</f>
+        <v>33.680000000000007</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="37">
+      <c r="B27" s="37"/>
+      <c r="C27" s="39">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1579,42 +1654,48 @@
       <c r="G27" s="7">
         <v>38.25</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="34"/>
+      <c r="H27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="27">
+        <f>I25-G27</f>
+        <v>-8.2199999999999989</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G28" s="7">
         <v>32.85</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="34"/>
+      <c r="H28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="27">
+        <f>I26-G28</f>
+        <v>0.8300000000000054</v>
+      </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="37">
+      <c r="B29" s="37"/>
+      <c r="C29" s="39">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1629,18 +1710,21 @@
       <c r="G29" s="7">
         <v>15.49</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="34"/>
+      <c r="H29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="27">
+        <f>I25-G29</f>
+        <v>14.540000000000001</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="46"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1653,67 +1737,64 @@
       <c r="G30" s="9">
         <v>3.34</v>
       </c>
-      <c r="H30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="28"/>
+      <c r="H30" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="22">
+        <f>I27-G30</f>
+        <v>-11.559999999999999</v>
+      </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="15">
         <v>1</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="16">
         <v>45152</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21">
+      <c r="E31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15">
         <v>23.68</v>
       </c>
-      <c r="I31" s="31">
-        <f>SUM(H31-G31)</f>
-        <v>23.68</v>
-      </c>
-      <c r="J31" s="23" t="s">
+      <c r="I31" s="25"/>
+      <c r="J31" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="48">
         <v>1</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="36">
         <v>45154</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="10">
+      <c r="E32" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="48">
         <v>35.42</v>
       </c>
-      <c r="I32" s="32">
-        <f t="shared" ref="I32:I34" si="1">SUM(H32-G32)</f>
-        <v>35.42</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="50"/>
+      <c r="J32" s="49" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1721,8 +1802,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="37">
+      <c r="B33" s="37"/>
+      <c r="C33" s="39">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1738,8 +1819,8 @@
       <c r="H33" s="7">
         <v>25</v>
       </c>
-      <c r="I33" s="33">
-        <f t="shared" si="1"/>
+      <c r="I33" s="26">
+        <f t="shared" ref="I33:I34" si="1">SUM(H33-G33)</f>
         <v>15.96</v>
       </c>
       <c r="J33" s="3"/>
@@ -1748,8 +1829,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1844,7 @@
       <c r="H34" s="7">
         <v>25</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="26">
         <f t="shared" si="1"/>
         <v>15.96</v>
       </c>
@@ -1773,8 +1854,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1869,7 @@
       <c r="H35" s="7">
         <v>25</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="26">
         <f>SUM(H35-G35)</f>
         <v>16.880000000000003</v>
       </c>
@@ -1798,8 +1879,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -1808,10 +1889,10 @@
       <c r="G36" s="7">
         <v>0.09</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="26">
+      <c r="H36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="20">
         <f>SUM(I12-G36)</f>
         <v>24.61</v>
       </c>
@@ -1821,8 +1902,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -1831,10 +1912,10 @@
       <c r="G37" s="7">
         <v>0.09</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="25">
+      <c r="H37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="19">
         <f>SUM(I13-G37)</f>
         <v>24.61</v>
       </c>
@@ -1844,8 +1925,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -1856,10 +1937,10 @@
       <c r="G38" s="7">
         <v>160.44</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="21">
         <v>225</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="19">
         <f>I14-G38+H38</f>
         <v>72.91</v>
       </c>
@@ -1869,8 +1950,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="40">
+      <c r="B39" s="37"/>
+      <c r="C39" s="42">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1883,11 +1964,11 @@
       <c r="G39" s="7">
         <v>1.42</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="25">
-        <f>I33-G39</f>
+      <c r="H39" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" ref="I39:I50" si="2">I33-G39</f>
         <v>14.540000000000001</v>
       </c>
       <c r="J39" s="8"/>
@@ -1896,8 +1977,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1908,11 +1989,11 @@
       <c r="G40" s="7">
         <v>1.42</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="25">
-        <f>I34-G40</f>
+      <c r="H40" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="2"/>
         <v>14.540000000000001</v>
       </c>
       <c r="J40" s="8"/>
@@ -1921,8 +2002,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -1933,11 +2014,11 @@
       <c r="G41" s="7">
         <v>1.29</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="25">
-        <f>I35-G41</f>
+      <c r="H41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="2"/>
         <v>15.590000000000003</v>
       </c>
       <c r="J41" s="8"/>
@@ -1946,8 +2027,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -1956,11 +2037,11 @@
       <c r="G42" s="7">
         <v>0.01</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="25">
-        <f>I36-G42</f>
+      <c r="H42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="2"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J42" s="8"/>
@@ -1969,8 +2050,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -1979,11 +2060,11 @@
       <c r="G43" s="7">
         <v>0.01</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="25">
-        <f>I37-G43</f>
+      <c r="H43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="2"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J43" s="8"/>
@@ -1992,8 +2073,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="42"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="7" t="s">
         <v>29</v>
       </c>
@@ -2004,11 +2085,11 @@
       <c r="G44" s="7">
         <v>24.15</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="25">
-        <f>I38-G44</f>
+      <c r="H44" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="19">
+        <f t="shared" si="2"/>
         <v>48.76</v>
       </c>
       <c r="J44" s="8"/>
@@ -2017,8 +2098,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="40">
+      <c r="B45" s="37"/>
+      <c r="C45" s="42">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2031,11 +2112,11 @@
       <c r="G45" s="7">
         <v>3.08</v>
       </c>
-      <c r="H45" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="25">
-        <f>I39-G45</f>
+      <c r="H45" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="19">
+        <f t="shared" si="2"/>
         <v>11.46</v>
       </c>
       <c r="J45" s="8"/>
@@ -2044,8 +2125,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2056,11 +2137,11 @@
       <c r="G46" s="7">
         <v>3.08</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="25">
-        <f>I40-G46</f>
+      <c r="H46" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="19">
+        <f t="shared" si="2"/>
         <v>11.46</v>
       </c>
       <c r="J46" s="8"/>
@@ -2069,8 +2150,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2081,11 +2162,11 @@
       <c r="G47" s="7">
         <v>4.09</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="25">
-        <f>I41-G47</f>
+      <c r="H47" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="19">
+        <f t="shared" si="2"/>
         <v>11.500000000000004</v>
       </c>
       <c r="J47" s="8"/>
@@ -2094,8 +2175,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="41"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2104,11 +2185,11 @@
       <c r="G48" s="7">
         <v>0.05</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="25">
-        <f>I42-G48</f>
+      <c r="H48" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="2"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J48" s="8"/>
@@ -2117,8 +2198,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2127,55 +2208,521 @@
       <c r="G49" s="7">
         <v>0.05</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="25">
-        <f>I43-G49</f>
+      <c r="H49" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="19">
+        <f t="shared" si="2"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="7" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7">
+      <c r="F50" s="52"/>
+      <c r="G50" s="9">
         <v>48.13</v>
       </c>
-      <c r="H50" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="36">
-        <f>I44-G50</f>
+      <c r="H50" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="53">
+        <f t="shared" si="2"/>
         <v>0.62999999999999545</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>1</v>
+      </c>
+      <c r="B51" s="56">
+        <v>45157</v>
+      </c>
+      <c r="C51" s="60">
+        <v>20230816001</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="4">
+        <v>75.44</v>
+      </c>
+      <c r="H51" s="4">
+        <v>154.02000000000001</v>
+      </c>
+      <c r="I51" s="23">
+        <f>H51-G51</f>
+        <v>78.580000000000013</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="57"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="H52" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="I52" s="27">
+        <f>I15+H52-G52</f>
+        <v>12.610000000000003</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="3">
+        <v>39.75</v>
+      </c>
+      <c r="H53" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="I53" s="27">
+        <f>H53-G53</f>
+        <v>68.55</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>4</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="39">
+        <v>20230816002</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="3">
+        <v>18.72</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="27">
+        <f>I51-G54</f>
+        <v>59.860000000000014</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>5</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="27">
+        <f>I52-G55</f>
+        <v>10.910000000000004</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>6</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9.85</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="27">
+        <f>I53-G56</f>
+        <v>58.699999999999996</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>7</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="39">
+        <v>20230816003</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="3">
+        <v>56.61</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="27">
+        <f>I54-G57</f>
+        <v>3.2500000000000142</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>8</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="27">
+        <f>I55-G58</f>
+        <v>5.7900000000000036</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>9</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="3">
+        <v>29.77</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="27">
+        <f>I56-G59</f>
+        <v>28.929999999999996</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>10</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="61">
+        <v>20230809002</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="27">
+        <f>I58-G60</f>
+        <v>5.2500000000000036</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>11</v>
+      </c>
+      <c r="B61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="27">
+        <f>I59-G61</f>
+        <v>25.809999999999995</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>12</v>
+      </c>
+      <c r="B62" s="57"/>
+      <c r="C62" s="39">
+        <v>20230809003</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="27">
+        <f>I60-G62</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>13</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="7">
+        <v>19.84</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="27">
+        <f>I61-G63</f>
+        <v>5.9699999999999953</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>14</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="39">
+        <v>20230809006</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="27">
+        <f>I62-G64</f>
+        <v>0.17000000000000348</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>15</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="27">
+        <f>I63-G65</f>
+        <v>0.86999999999999567</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>16</v>
+      </c>
+      <c r="B66" s="58"/>
+      <c r="C66" s="3">
+        <v>20230809004</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="7">
+        <v>86.1</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="54"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="54"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J5"/>
-  <mergeCells count="23">
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="30">
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -2187,6 +2734,18 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="48">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +221,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2929"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,6 +452,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,6 +475,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,79 +532,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,6 +568,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2929"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA5F40"/>
+      <color rgb="FFFF603B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -854,66 +889,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -978,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,87 +1034,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1111,10 +1146,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="50">
         <v>45145</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="54">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1144,8 +1179,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1170,8 +1205,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1185,18 +1220,20 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="66">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1210,18 +1247,20 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="66">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1235,18 +1274,20 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="66">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1262,14 +1303,16 @@
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1285,14 +1328,16 @@
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1310,14 +1355,16 @@
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1335,14 +1382,16 @@
         <f t="shared" si="0"/>
         <v>4.120000000000001</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1439,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="50">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1416,8 +1465,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="39">
+      <c r="B19" s="51"/>
+      <c r="C19" s="41">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1439,14 +1488,16 @@
         <f>H19-G19</f>
         <v>158.83000000000001</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1466,13 +1517,15 @@
         <f>H20-G20</f>
         <v>6.4600000000000009</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="40"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
@@ -1493,14 +1546,16 @@
         <f>H21-G21</f>
         <v>20.57</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="39">
+      <c r="B22" s="51"/>
+      <c r="C22" s="41">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1522,14 +1577,16 @@
         <f>I19-G22</f>
         <v>157.78</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1602,7 @@
       <c r="H23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="57">
         <f>I20-G23</f>
         <v>0.51000000000000068</v>
       </c>
@@ -1555,7 +1612,7 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="40"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
@@ -1572,18 +1629,20 @@
       <c r="H24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <f>I21-G24</f>
         <v>18.18</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="39">
+      <c r="B25" s="51"/>
+      <c r="C25" s="41">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1605,13 +1664,15 @@
         <f>I22-G25</f>
         <v>30.03</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="40"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
@@ -1632,14 +1693,16 @@
         <f>H26-G26</f>
         <v>33.680000000000007</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="39">
+      <c r="B27" s="51"/>
+      <c r="C27" s="41">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1661,13 +1724,15 @@
         <f>I25-G27</f>
         <v>-8.2199999999999989</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="40"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
@@ -1684,7 +1749,7 @@
       <c r="H28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="57">
         <f>I26-G28</f>
         <v>0.8300000000000054</v>
       </c>
@@ -1694,8 +1759,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="39">
+      <c r="B29" s="51"/>
+      <c r="C29" s="41">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1713,9 +1778,9 @@
       <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="27">
-        <f>I25-G29</f>
-        <v>14.540000000000001</v>
+      <c r="I29" s="57">
+        <f>I24-G29</f>
+        <v>2.6899999999999995</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -1723,8 +1788,8 @@
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1805,7 @@
       <c r="H30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="60">
         <f>I27-G30</f>
         <v>-11.559999999999999</v>
       </c>
@@ -1773,28 +1838,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="50">
         <v>45154</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="49" t="s">
+      <c r="E32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="48">
+      <c r="G32" s="30"/>
+      <c r="H32" s="29">
         <v>35.42</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="49" t="s">
+      <c r="I32" s="31"/>
+      <c r="J32" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1802,8 +1867,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="39">
+      <c r="B33" s="51"/>
+      <c r="C33" s="41">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1820,17 +1885,19 @@
         <v>25</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" ref="I33:I34" si="1">SUM(H33-G33)</f>
-        <v>15.96</v>
-      </c>
-      <c r="J33" s="3"/>
+        <f>SUM(I9+H33-G33)</f>
+        <v>25.46</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1845,17 +1912,19 @@
         <v>25</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="1"/>
-        <v>15.96</v>
-      </c>
-      <c r="J34" s="3"/>
+        <f>SUM(I10+H34-G34)</f>
+        <v>25.46</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1870,17 +1939,19 @@
         <v>25</v>
       </c>
       <c r="I35" s="26">
-        <f>SUM(H35-G35)</f>
-        <v>16.880000000000003</v>
-      </c>
-      <c r="J35" s="3"/>
+        <f>SUM(I11+H35-G35)</f>
+        <v>21.35</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -1896,14 +1967,16 @@
         <f>SUM(I12-G36)</f>
         <v>24.61</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -1919,13 +1992,15 @@
         <f>SUM(I13-G37)</f>
         <v>24.61</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="40"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
@@ -1944,14 +2019,16 @@
         <f>I14-G38+H38</f>
         <v>72.91</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="42">
+      <c r="B39" s="51"/>
+      <c r="C39" s="46">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1968,17 +2045,19 @@
         <v>41</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" ref="I39:I50" si="2">I33-G39</f>
-        <v>14.540000000000001</v>
-      </c>
-      <c r="J39" s="8"/>
+        <f>I33-G39</f>
+        <v>24.04</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1993,17 +2072,19 @@
         <v>41</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" si="2"/>
-        <v>14.540000000000001</v>
-      </c>
-      <c r="J40" s="8"/>
+        <f>I34-G40</f>
+        <v>24.04</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2018,17 +2099,19 @@
         <v>41</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="2"/>
-        <v>15.590000000000003</v>
-      </c>
-      <c r="J41" s="8"/>
+        <f>I35-G41</f>
+        <v>20.060000000000002</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2041,17 +2124,19 @@
         <v>41</v>
       </c>
       <c r="I42" s="19">
-        <f t="shared" si="2"/>
+        <f>I36-G42</f>
         <v>24.599999999999998</v>
       </c>
-      <c r="J42" s="8"/>
+      <c r="J42" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2064,17 +2149,19 @@
         <v>41</v>
       </c>
       <c r="I43" s="19">
-        <f t="shared" si="2"/>
+        <f>I37-G43</f>
         <v>24.599999999999998</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="7" t="s">
         <v>29</v>
       </c>
@@ -2089,17 +2176,19 @@
         <v>41</v>
       </c>
       <c r="I44" s="19">
-        <f t="shared" si="2"/>
+        <f>I38-G44</f>
         <v>48.76</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="42">
+      <c r="B45" s="51"/>
+      <c r="C45" s="46">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2115,9 +2204,9 @@
       <c r="H45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="19">
-        <f t="shared" si="2"/>
-        <v>11.46</v>
+      <c r="I45" s="58">
+        <f>I39-G45</f>
+        <v>20.96</v>
       </c>
       <c r="J45" s="8"/>
     </row>
@@ -2125,8 +2214,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2140,9 +2229,9 @@
       <c r="H46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="19">
-        <f t="shared" si="2"/>
-        <v>11.46</v>
+      <c r="I46" s="58">
+        <f>I40-G46</f>
+        <v>20.96</v>
       </c>
       <c r="J46" s="8"/>
     </row>
@@ -2150,8 +2239,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2165,9 +2254,9 @@
       <c r="H47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="19">
-        <f t="shared" si="2"/>
-        <v>11.500000000000004</v>
+      <c r="I47" s="58">
+        <f>I41-G47</f>
+        <v>15.970000000000002</v>
       </c>
       <c r="J47" s="8"/>
     </row>
@@ -2175,8 +2264,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2188,8 +2277,8 @@
       <c r="H48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="19">
-        <f t="shared" si="2"/>
+      <c r="I48" s="58">
+        <f>I42-G48</f>
         <v>24.549999999999997</v>
       </c>
       <c r="J48" s="8"/>
@@ -2198,8 +2287,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2211,8 +2300,8 @@
       <c r="H49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="19">
-        <f t="shared" si="2"/>
+      <c r="I49" s="58">
+        <f>I43-G49</f>
         <v>24.549999999999997</v>
       </c>
       <c r="J49" s="8"/>
@@ -2221,64 +2310,66 @@
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="9">
         <v>48.13</v>
       </c>
       <c r="H50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="53">
-        <f t="shared" si="2"/>
+      <c r="I50" s="59">
+        <f>I44-G50</f>
         <v>0.62999999999999545</v>
       </c>
-      <c r="J50" s="52"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="30">
         <v>1</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="50">
         <v>45157</v>
       </c>
-      <c r="C51" s="60">
+      <c r="C51" s="38">
         <v>20230816001</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="30">
         <v>75.44</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="30">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="63">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51" s="64" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2296,13 +2387,15 @@
         <f>I15+H52-G52</f>
         <v>12.610000000000003</v>
       </c>
-      <c r="J52" s="3"/>
+      <c r="J52" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="57"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="40"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
@@ -2323,14 +2416,16 @@
         <f>H53-G53</f>
         <v>68.55</v>
       </c>
-      <c r="J53" s="3"/>
+      <c r="J53" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="39">
+      <c r="B54" s="51"/>
+      <c r="C54" s="41">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2352,14 +2447,16 @@
         <f>I51-G54</f>
         <v>59.860000000000014</v>
       </c>
-      <c r="J54" s="3"/>
+      <c r="J54" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="41"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2377,13 +2474,15 @@
         <f>I52-G55</f>
         <v>10.910000000000004</v>
       </c>
-      <c r="J55" s="3"/>
+      <c r="J55" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="40"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
@@ -2404,14 +2503,16 @@
         <f>I53-G56</f>
         <v>58.699999999999996</v>
       </c>
-      <c r="J56" s="3"/>
+      <c r="J56" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="39">
+      <c r="B57" s="51"/>
+      <c r="C57" s="41">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2429,7 +2530,7 @@
       <c r="H57" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="57">
         <f>I54-G57</f>
         <v>3.2500000000000142</v>
       </c>
@@ -2439,8 +2540,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="41"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2458,13 +2559,15 @@
         <f>I55-G58</f>
         <v>5.7900000000000036</v>
       </c>
-      <c r="J58" s="3"/>
+      <c r="J58" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="40"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
@@ -2485,14 +2588,16 @@
         <f>I56-G59</f>
         <v>28.929999999999996</v>
       </c>
-      <c r="J59" s="3"/>
+      <c r="J59" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="61">
+      <c r="B60" s="51"/>
+      <c r="C60" s="42">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2512,14 +2617,16 @@
         <f>I58-G60</f>
         <v>5.2500000000000036</v>
       </c>
-      <c r="J60" s="3"/>
+      <c r="J60" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="59"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2539,14 +2646,16 @@
         <f>I59-G61</f>
         <v>25.809999999999995</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="39">
+      <c r="B62" s="51"/>
+      <c r="C62" s="41">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2566,13 +2675,15 @@
         <f>I60-G62</f>
         <v>1.8400000000000034</v>
       </c>
-      <c r="J62" s="3"/>
+      <c r="J62" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="40"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
@@ -2593,14 +2704,16 @@
         <f>I61-G63</f>
         <v>5.9699999999999953</v>
       </c>
-      <c r="J63" s="3"/>
+      <c r="J63" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="39">
+      <c r="B64" s="51"/>
+      <c r="C64" s="41">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2616,7 +2729,7 @@
       <c r="H64" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="57">
         <f>I62-G64</f>
         <v>0.17000000000000348</v>
       </c>
@@ -2626,7 +2739,7 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="57"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="40"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
@@ -2643,7 +2756,7 @@
       <c r="H65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="57">
         <f>I63-G65</f>
         <v>0.86999999999999567</v>
       </c>
@@ -2653,7 +2766,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="58"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2667,62 +2780,130 @@
       <c r="G66" s="7">
         <v>86.1</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="H66" s="3">
+        <v>175</v>
+      </c>
+      <c r="I66" s="3">
+        <f>H66-G66</f>
+        <v>88.9</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="54"/>
+      <c r="A67" s="4">
+        <v>17</v>
+      </c>
+      <c r="B67" s="51"/>
+      <c r="C67" s="3">
+        <v>20230809005</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="62">
+        <f>I66-G67</f>
+        <v>60.100000000000009</v>
+      </c>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
+      <c r="A68" s="4">
+        <v>18</v>
+      </c>
+      <c r="B68" s="51"/>
+      <c r="C68" s="3">
+        <v>20230814001</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <v>63.96</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="61">
+        <f>I67-G68</f>
+        <v>-3.8599999999999923</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>19</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="6">
+        <v>20230814001</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="9">
+        <v>81.64</v>
+      </c>
+      <c r="H69" s="6">
+        <v>77.44</v>
+      </c>
+      <c r="I69" s="65">
+        <f>H69-G69</f>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J5"/>
+  <autoFilter ref="B4:J68"/>
   <mergeCells count="30">
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B51:B69"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -2734,21 +2915,18 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I52" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="48">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,7 +462,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,91 +516,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -889,66 +913,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1013,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,87 +1058,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="36"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1146,10 +1170,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="55">
         <v>45145</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="60">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1179,8 +1203,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1205,8 +1229,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1244,7 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="41">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
@@ -1232,8 +1256,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1247,7 +1271,7 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -1259,8 +1283,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1298,7 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
@@ -1286,8 +1310,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1311,8 +1335,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1336,8 +1360,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1363,8 +1387,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1390,8 +1414,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1439,7 +1463,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="55">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1465,8 +1489,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="41">
+      <c r="B19" s="56"/>
+      <c r="C19" s="53">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1496,8 +1520,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1525,8 +1549,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1554,8 +1578,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="41">
+      <c r="B22" s="56"/>
+      <c r="C22" s="53">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1585,8 +1609,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1626,7 @@
       <c r="H23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="33">
         <f>I20-G23</f>
         <v>0.51000000000000068</v>
       </c>
@@ -1612,8 +1636,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1641,8 +1665,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="41">
+      <c r="B25" s="56"/>
+      <c r="C25" s="53">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1672,8 +1696,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1701,8 +1725,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="41">
+      <c r="B27" s="56"/>
+      <c r="C27" s="53">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1732,8 +1756,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1749,7 +1773,7 @@
       <c r="H28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="33">
         <f>I26-G28</f>
         <v>0.8300000000000054</v>
       </c>
@@ -1759,8 +1783,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="41">
+      <c r="B29" s="56"/>
+      <c r="C29" s="53">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1778,18 +1802,20 @@
       <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="26">
         <f>I24-G29</f>
         <v>2.6899999999999995</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1805,11 +1831,12 @@
       <c r="H30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="60">
-        <f>I27-G30</f>
-        <v>-11.559999999999999</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
@@ -1841,7 +1868,7 @@
       <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="55">
         <v>45154</v>
       </c>
       <c r="C32" s="30"/>
@@ -1867,8 +1894,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="41">
+      <c r="B33" s="56"/>
+      <c r="C33" s="53">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1896,8 +1923,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1923,8 +1950,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1950,8 +1977,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -1975,8 +2002,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2027,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2027,8 +2054,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="46">
+      <c r="B39" s="56"/>
+      <c r="C39" s="64">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2045,7 +2072,7 @@
         <v>41</v>
       </c>
       <c r="I39" s="19">
-        <f>I33-G39</f>
+        <f t="shared" ref="I39:I50" si="1">I33-G39</f>
         <v>24.04</v>
       </c>
       <c r="J39" s="19" t="s">
@@ -2056,8 +2083,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2072,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="I40" s="19">
-        <f>I34-G40</f>
+        <f t="shared" si="1"/>
         <v>24.04</v>
       </c>
       <c r="J40" s="19" t="s">
@@ -2083,8 +2110,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2099,7 +2126,7 @@
         <v>41</v>
       </c>
       <c r="I41" s="19">
-        <f>I35-G41</f>
+        <f t="shared" si="1"/>
         <v>20.060000000000002</v>
       </c>
       <c r="J41" s="19" t="s">
@@ -2110,8 +2137,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2124,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="I42" s="19">
-        <f>I36-G42</f>
+        <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J42" s="19" t="s">
@@ -2135,8 +2162,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="19">
-        <f>I37-G43</f>
+        <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J43" s="19" t="s">
@@ -2160,8 +2187,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="7" t="s">
         <v>29</v>
       </c>
@@ -2176,7 +2203,7 @@
         <v>41</v>
       </c>
       <c r="I44" s="19">
-        <f>I38-G44</f>
+        <f t="shared" si="1"/>
         <v>48.76</v>
       </c>
       <c r="J44" s="19" t="s">
@@ -2187,8 +2214,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="46">
+      <c r="B45" s="56"/>
+      <c r="C45" s="64">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2204,18 +2231,20 @@
       <c r="H45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="58">
-        <f>I39-G45</f>
+      <c r="I45" s="42">
+        <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2229,18 +2258,20 @@
       <c r="H46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="58">
-        <f>I40-G46</f>
+      <c r="I46" s="42">
+        <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2254,18 +2285,20 @@
       <c r="H47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="58">
-        <f>I41-G47</f>
+      <c r="I47" s="42">
+        <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2277,8 +2310,8 @@
       <c r="H48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="58">
-        <f>I42-G48</f>
+      <c r="I48" s="34">
+        <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J48" s="8"/>
@@ -2287,8 +2320,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2333,8 @@
       <c r="H49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="58">
-        <f>I43-G49</f>
+      <c r="I49" s="34">
+        <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J49" s="8"/>
@@ -2310,8 +2343,8 @@
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
@@ -2325,20 +2358,22 @@
       <c r="H50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="59">
-        <f>I44-G50</f>
+      <c r="I50" s="35">
+        <f t="shared" si="1"/>
         <v>0.62999999999999545</v>
       </c>
-      <c r="J50" s="32"/>
+      <c r="J50" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>1</v>
       </c>
-      <c r="B51" s="50">
+      <c r="B51" s="55">
         <v>45157</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="69">
         <v>20230816001</v>
       </c>
       <c r="D51" s="30" t="s">
@@ -2356,11 +2391,11 @@
       <c r="H51" s="30">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="63">
+      <c r="I51" s="38">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="64" t="s">
+      <c r="J51" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2368,8 +2403,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2395,8 +2430,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="40"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2424,8 +2459,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="41">
+      <c r="B54" s="56"/>
+      <c r="C54" s="53">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2444,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="I54" s="27">
-        <f>I51-G54</f>
+        <f t="shared" ref="I54:I59" si="2">I51-G54</f>
         <v>59.860000000000014</v>
       </c>
       <c r="J54" s="19" t="s">
@@ -2455,8 +2490,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="I55" s="27">
-        <f>I52-G55</f>
+        <f t="shared" si="2"/>
         <v>10.910000000000004</v>
       </c>
       <c r="J55" s="19" t="s">
@@ -2482,8 +2517,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="40"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2500,7 +2535,7 @@
         <v>41</v>
       </c>
       <c r="I56" s="27">
-        <f>I53-G56</f>
+        <f t="shared" si="2"/>
         <v>58.699999999999996</v>
       </c>
       <c r="J56" s="19" t="s">
@@ -2511,8 +2546,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="41">
+      <c r="B57" s="56"/>
+      <c r="C57" s="53">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2530,8 +2565,8 @@
       <c r="H57" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="57">
-        <f>I54-G57</f>
+      <c r="I57" s="33">
+        <f t="shared" si="2"/>
         <v>3.2500000000000142</v>
       </c>
       <c r="J57" s="3"/>
@@ -2540,8 +2575,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="39"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +2591,7 @@
         <v>41</v>
       </c>
       <c r="I58" s="27">
-        <f>I55-G58</f>
+        <f t="shared" si="2"/>
         <v>5.7900000000000036</v>
       </c>
       <c r="J58" s="19" t="s">
@@ -2567,8 +2602,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2620,7 @@
         <v>41</v>
       </c>
       <c r="I59" s="27">
-        <f>I56-G59</f>
+        <f t="shared" si="2"/>
         <v>28.929999999999996</v>
       </c>
       <c r="J59" s="19" t="s">
@@ -2596,8 +2631,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="42">
+      <c r="B60" s="56"/>
+      <c r="C60" s="51">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2614,7 +2649,7 @@
         <v>41</v>
       </c>
       <c r="I60" s="27">
-        <f>I58-G60</f>
+        <f t="shared" ref="I60:I65" si="3">I58-G60</f>
         <v>5.2500000000000036</v>
       </c>
       <c r="J60" s="19" t="s">
@@ -2625,8 +2660,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2678,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="27">
-        <f>I59-G61</f>
+        <f t="shared" si="3"/>
         <v>25.809999999999995</v>
       </c>
       <c r="J61" s="19" t="s">
@@ -2654,8 +2689,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="41">
+      <c r="B62" s="56"/>
+      <c r="C62" s="53">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2672,7 +2707,7 @@
         <v>41</v>
       </c>
       <c r="I62" s="27">
-        <f>I60-G62</f>
+        <f t="shared" si="3"/>
         <v>1.8400000000000034</v>
       </c>
       <c r="J62" s="19" t="s">
@@ -2683,8 +2718,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>41</v>
       </c>
       <c r="I63" s="27">
-        <f>I61-G63</f>
+        <f t="shared" si="3"/>
         <v>5.9699999999999953</v>
       </c>
       <c r="J63" s="19" t="s">
@@ -2712,8 +2747,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="41">
+      <c r="B64" s="56"/>
+      <c r="C64" s="53">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2729,8 +2764,8 @@
       <c r="H64" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="57">
-        <f>I62-G64</f>
+      <c r="I64" s="33">
+        <f t="shared" si="3"/>
         <v>0.17000000000000348</v>
       </c>
       <c r="J64" s="3"/>
@@ -2739,8 +2774,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="40"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2756,8 +2791,8 @@
       <c r="H65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="57">
-        <f>I63-G65</f>
+      <c r="I65" s="33">
+        <f t="shared" si="3"/>
         <v>0.86999999999999567</v>
       </c>
       <c r="J65" s="3"/>
@@ -2766,7 +2801,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="51"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2795,7 +2830,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="51"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -2812,7 +2847,7 @@
       <c r="H67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="62">
+      <c r="I67" s="37">
         <f>I66-G67</f>
         <v>60.100000000000009</v>
       </c>
@@ -2822,7 +2857,7 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="51"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="3">
         <v>20230814001</v>
       </c>
@@ -2839,7 +2874,7 @@
       <c r="H68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="61">
+      <c r="I68" s="36">
         <f>I67-G68</f>
         <v>-3.8599999999999923</v>
       </c>
@@ -2849,7 +2884,7 @@
       <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="52"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="6">
         <v>20230814001</v>
       </c>
@@ -2868,30 +2903,427 @@
       <c r="H69" s="6">
         <v>77.44</v>
       </c>
-      <c r="I69" s="65">
+      <c r="I69" s="40">
         <f>H69-G69</f>
         <v>-4.2000000000000028</v>
       </c>
       <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
+      <c r="A70" s="30">
+        <v>1</v>
+      </c>
+      <c r="B70" s="55">
+        <v>45160</v>
+      </c>
+      <c r="C70" s="29">
+        <v>20230814001</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="29">
+        <v>94.9</v>
+      </c>
+      <c r="H70" s="30">
+        <v>95.77</v>
+      </c>
+      <c r="I70" s="43">
+        <f>H70-G70</f>
+        <v>0.86999999999999034</v>
+      </c>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="7">
+        <v>20230816001</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H71" s="3">
+        <v>25</v>
+      </c>
+      <c r="I71" s="7">
+        <f>I45+H71-G71</f>
+        <v>27.86</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>3</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="7">
+        <v>20230816001</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H72" s="7">
+        <v>25</v>
+      </c>
+      <c r="I72" s="3">
+        <f>I46+H72-G72</f>
+        <v>27.86</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>4</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="7">
+        <v>20230816002</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="3">
+        <f>I71-G73</f>
+        <v>23.38</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>5</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="7">
+        <v>20230816002</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="3">
+        <f>I72-G74</f>
+        <v>23.38</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>6</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75" s="7">
+        <v>20230816003</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="7">
+        <v>13.57</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="37">
+        <f>I73-G75</f>
+        <v>9.8099999999999987</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>7</v>
+      </c>
+      <c r="B76" s="57"/>
+      <c r="C76" s="9">
+        <v>20230816003</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="9">
+        <v>13.57</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="44">
+        <f>I74-G76</f>
+        <v>9.8099999999999987</v>
+      </c>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="45">
+        <v>1</v>
+      </c>
+      <c r="B77" s="55">
+        <v>45161</v>
+      </c>
+      <c r="C77" s="45">
+        <v>20230816001</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="45">
+        <v>30.4</v>
+      </c>
+      <c r="H77" s="45">
+        <v>42.12</v>
+      </c>
+      <c r="I77" s="45">
+        <f>I29+H77-G77</f>
+        <v>14.409999999999997</v>
+      </c>
+      <c r="J77" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>2</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="3">
+        <v>20230816002</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="3">
+        <f>I77-G78</f>
+        <v>6.8699999999999966</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>3</v>
+      </c>
+      <c r="B79" s="57"/>
+      <c r="C79" s="6">
+        <v>20230816003</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="9">
+        <v>22.78</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="44">
+        <f>I78-G79</f>
+        <v>-15.910000000000004</v>
+      </c>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>1</v>
+      </c>
+      <c r="B80" s="71">
+        <v>45162</v>
+      </c>
+      <c r="C80" s="29">
+        <v>20230816001</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="72"/>
+      <c r="G80" s="29">
+        <v>321.70999999999998</v>
+      </c>
+      <c r="H80" s="30">
+        <v>250</v>
+      </c>
+      <c r="I80" s="74">
+        <f>H80-G80</f>
+        <v>-71.70999999999998</v>
+      </c>
+      <c r="J80" s="19"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>2</v>
+      </c>
+      <c r="B81" s="70"/>
+      <c r="C81" s="7">
+        <v>20230816001</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7">
+        <v>16.37</v>
+      </c>
+      <c r="H81" s="3">
+        <v>25</v>
+      </c>
+      <c r="I81" s="3">
+        <f>I47+H81-G81</f>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>3</v>
+      </c>
+      <c r="B82" s="70"/>
+      <c r="C82" s="7">
+        <v>20230816002</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7">
+        <v>79.8</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="36">
+        <f>I80-G82</f>
+        <v>-151.51</v>
+      </c>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>4</v>
+      </c>
+      <c r="B83" s="73"/>
+      <c r="C83" s="9">
+        <v>20230816002</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="32"/>
+      <c r="G83" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="44">
+        <f>I81-G83</f>
+        <v>20.54</v>
+      </c>
+      <c r="J83" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J68"/>
-  <mergeCells count="30">
-    <mergeCell ref="B51:B69"/>
+  <mergeCells count="33">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="C7:C16"/>
     <mergeCell ref="B7:B16"/>
     <mergeCell ref="C27:C28"/>
@@ -2899,11 +3331,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -2915,12 +3342,15 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B51:B69"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="263" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Juli 2023" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>SR-PVC</t>
+  </si>
+  <si>
+    <t>M02-01955003-KTY</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,9 +471,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +502,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,18 +520,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,53 +559,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -913,66 +910,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1040,8 +1037,8 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,87 +1055,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="49"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1154,8 +1151,8 @@
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
+      <c r="F6" s="6">
+        <v>0.12</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
@@ -1170,10 +1167,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="62">
         <v>45145</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="66">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1203,8 +1200,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1229,8 +1226,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1241,7 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
@@ -1256,8 +1253,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1268,7 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -1283,8 +1280,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1295,7 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
@@ -1310,8 +1307,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1335,8 +1332,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1357,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1375,7 +1372,7 @@
       <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="40">
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
@@ -1387,8 +1384,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1414,16 +1411,16 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
+      <c r="F16" s="6">
+        <v>0.12</v>
       </c>
       <c r="G16" s="6">
         <v>25.61</v>
@@ -1463,7 +1460,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="62">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1489,8 +1486,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="53">
+      <c r="B19" s="63"/>
+      <c r="C19" s="55">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1506,11 +1503,11 @@
         <v>6.64</v>
       </c>
       <c r="H19" s="3">
-        <v>165.47</v>
+        <v>177.03</v>
       </c>
       <c r="I19" s="27">
         <f>H19-G19</f>
-        <v>158.83000000000001</v>
+        <v>170.39000000000001</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>41</v>
@@ -1520,8 +1517,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1549,8 +1546,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1578,8 +1575,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="53">
+      <c r="B22" s="63"/>
+      <c r="C22" s="55">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1599,7 +1596,7 @@
       </c>
       <c r="I22" s="27">
         <f>I19-G22</f>
-        <v>157.78</v>
+        <v>169.34</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>41</v>
@@ -1609,8 +1606,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1636,8 +1633,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1665,8 +1662,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="53">
+      <c r="B25" s="63"/>
+      <c r="C25" s="55">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1686,7 +1683,7 @@
       </c>
       <c r="I25" s="27">
         <f>I22-G25</f>
-        <v>30.03</v>
+        <v>41.59</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>41</v>
@@ -1696,8 +1693,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1725,8 +1722,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="53">
+      <c r="B27" s="63"/>
+      <c r="C27" s="55">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1746,7 +1743,7 @@
       </c>
       <c r="I27" s="27">
         <f>I25-G27</f>
-        <v>-8.2199999999999989</v>
+        <v>3.3400000000000034</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>41</v>
@@ -1756,8 +1753,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1783,8 +1780,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="53">
+      <c r="B29" s="63"/>
+      <c r="C29" s="55">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1814,8 +1811,8 @@
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1865,7 @@
       <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="62">
         <v>45154</v>
       </c>
       <c r="C32" s="30"/>
@@ -1894,8 +1891,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="53">
+      <c r="B33" s="63"/>
+      <c r="C33" s="55">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1923,8 +1920,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1950,8 +1947,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1977,8 +1974,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2002,8 +1999,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2027,8 +2024,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2040,11 +2037,11 @@
         <v>160.44</v>
       </c>
       <c r="H38" s="21">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="I38" s="19">
-        <f>I14-G38+H38</f>
-        <v>72.91</v>
+        <f>I14+H38-G38</f>
+        <v>47.91</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>41</v>
@@ -2054,8 +2051,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="64">
+      <c r="B39" s="63"/>
+      <c r="C39" s="58">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2071,8 +2068,8 @@
       <c r="H39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="19">
-        <f t="shared" ref="I39:I50" si="1">I33-G39</f>
+      <c r="I39" s="41">
+        <f>I33-G39</f>
         <v>24.04</v>
       </c>
       <c r="J39" s="19" t="s">
@@ -2083,8 +2080,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>41</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I39:I50" si="1">I34-G40</f>
         <v>24.04</v>
       </c>
       <c r="J40" s="19" t="s">
@@ -2110,8 +2107,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2137,8 +2134,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2162,8 +2159,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2175,7 +2172,7 @@
       <c r="H43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="41">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
@@ -2187,10 +2184,10 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>30</v>
@@ -2199,23 +2196,21 @@
       <c r="G44" s="7">
         <v>24.15</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="19">
-        <f t="shared" si="1"/>
-        <v>48.76</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="H44" s="19">
+        <v>25</v>
+      </c>
+      <c r="I44" s="34">
+        <f>H44-G44</f>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="64">
+      <c r="B45" s="63"/>
+      <c r="C45" s="58">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2231,7 +2226,7 @@
       <c r="H45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="41">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2243,8 +2238,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2258,7 +2253,7 @@
       <c r="H46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="41">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2270,8 +2265,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="65"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2280,7 @@
       <c r="H47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="41">
         <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
@@ -2297,8 +2292,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="65"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2320,8 +2315,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="65"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2343,8 +2338,8 @@
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="67"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
@@ -2358,9 +2353,9 @@
       <c r="H50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="35">
-        <f t="shared" si="1"/>
-        <v>0.62999999999999545</v>
+      <c r="I50" s="72">
+        <f>I38-G50</f>
+        <v>-0.22000000000000597</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>41</v>
@@ -2370,10 +2365,10 @@
       <c r="A51" s="30">
         <v>1</v>
       </c>
-      <c r="B51" s="55">
+      <c r="B51" s="62">
         <v>45157</v>
       </c>
-      <c r="C51" s="69">
+      <c r="C51" s="71">
         <v>20230816001</v>
       </c>
       <c r="D51" s="30" t="s">
@@ -2391,11 +2386,11 @@
       <c r="H51" s="30">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="37">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2403,8 +2398,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2430,16 +2425,16 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
+      <c r="F53" s="3">
+        <v>0.12</v>
       </c>
       <c r="G53" s="3">
         <v>39.75</v>
@@ -2459,8 +2454,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="53">
+      <c r="B54" s="63"/>
+      <c r="C54" s="55">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2490,8 +2485,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2517,16 +2512,16 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="54"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>18</v>
+      <c r="F56" s="3">
+        <v>0.12</v>
       </c>
       <c r="G56" s="3">
         <v>9.85</v>
@@ -2546,8 +2541,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="53">
+      <c r="B57" s="63"/>
+      <c r="C57" s="55">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2575,8 +2570,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2602,16 +2597,16 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="54"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>18</v>
+      <c r="F59" s="3">
+        <v>0.12</v>
       </c>
       <c r="G59" s="3">
         <v>29.77</v>
@@ -2631,8 +2626,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="51">
+      <c r="B60" s="63"/>
+      <c r="C60" s="55">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2660,16 +2655,16 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="52"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>18</v>
+      <c r="F61" s="3">
+        <v>0.12</v>
       </c>
       <c r="G61" s="7">
         <v>3.12</v>
@@ -2689,8 +2684,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="53">
+      <c r="B62" s="63"/>
+      <c r="C62" s="55">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2718,16 +2713,16 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>18</v>
+      <c r="F63" s="3">
+        <v>0.12</v>
       </c>
       <c r="G63" s="7">
         <v>19.84</v>
@@ -2747,8 +2742,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="53">
+      <c r="B64" s="63"/>
+      <c r="C64" s="55">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2774,16 +2769,16 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>18</v>
+      <c r="F65" s="3">
+        <v>0.12</v>
       </c>
       <c r="G65" s="7">
         <v>5.0999999999999996</v>
@@ -2801,7 +2796,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2830,7 +2825,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="56"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -2847,7 +2842,7 @@
       <c r="H67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="36">
         <f>I66-G67</f>
         <v>60.100000000000009</v>
       </c>
@@ -2857,7 +2852,7 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="3">
         <v>20230814001</v>
       </c>
@@ -2874,7 +2869,7 @@
       <c r="H68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="35">
         <f>I67-G68</f>
         <v>-3.8599999999999923</v>
       </c>
@@ -2884,7 +2879,7 @@
       <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="6">
         <v>20230814001</v>
       </c>
@@ -2903,7 +2898,7 @@
       <c r="H69" s="6">
         <v>77.44</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="39">
         <f>H69-G69</f>
         <v>-4.2000000000000028</v>
       </c>
@@ -2913,7 +2908,7 @@
       <c r="A70" s="30">
         <v>1</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="62">
         <v>45160</v>
       </c>
       <c r="C70" s="29">
@@ -2934,7 +2929,7 @@
       <c r="H70" s="30">
         <v>95.77</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="42">
         <f>H70-G70</f>
         <v>0.86999999999999034</v>
       </c>
@@ -2944,7 +2939,7 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="7">
         <v>20230816001</v>
       </c>
@@ -2973,7 +2968,7 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="7">
         <v>20230816001</v>
       </c>
@@ -3002,7 +2997,7 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="7">
         <v>20230816002</v>
       </c>
@@ -3031,7 +3026,7 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="7">
         <v>20230816002</v>
       </c>
@@ -3060,7 +3055,7 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="7">
         <v>20230816003</v>
       </c>
@@ -3077,7 +3072,7 @@
       <c r="H75" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="36">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
@@ -3087,7 +3082,7 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="9">
         <v>20230816003</v>
       </c>
@@ -3104,42 +3099,42 @@
       <c r="H76" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="44">
+      <c r="I76" s="43">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="45">
+      <c r="A77" s="44">
         <v>1</v>
       </c>
-      <c r="B77" s="55">
+      <c r="B77" s="62">
         <v>45161</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="44">
         <v>20230816001</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="45" t="s">
+      <c r="E77" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="45">
+      <c r="G77" s="44">
         <v>30.4</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="44">
         <v>42.12</v>
       </c>
-      <c r="I77" s="45">
+      <c r="I77" s="44">
         <f>I29+H77-G77</f>
         <v>14.409999999999997</v>
       </c>
-      <c r="J77" s="46" t="s">
+      <c r="J77" s="45" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3147,7 +3142,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="56"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3178,7 +3173,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3197,7 +3192,7 @@
       <c r="H79" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="44">
+      <c r="I79" s="43">
         <f>I78-G79</f>
         <v>-15.910000000000004</v>
       </c>
@@ -3207,7 +3202,7 @@
       <c r="A80" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="71">
+      <c r="B80" s="52">
         <v>45162</v>
       </c>
       <c r="C80" s="29">
@@ -3219,16 +3214,16 @@
       <c r="E80" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="72"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="29">
         <v>321.70999999999998</v>
       </c>
       <c r="H80" s="30">
-        <v>250</v>
-      </c>
-      <c r="I80" s="74">
+        <v>275</v>
+      </c>
+      <c r="I80" s="47">
         <f>H80-G80</f>
-        <v>-71.70999999999998</v>
+        <v>-46.70999999999998</v>
       </c>
       <c r="J80" s="19"/>
     </row>
@@ -3236,7 +3231,7 @@
       <c r="A81" s="7">
         <v>2</v>
       </c>
-      <c r="B81" s="70"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="7">
         <v>20230816001</v>
       </c>
@@ -3265,7 +3260,7 @@
       <c r="A82" s="7">
         <v>3</v>
       </c>
-      <c r="B82" s="70"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="7">
         <v>20230816002</v>
       </c>
@@ -3282,9 +3277,9 @@
       <c r="H82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="36">
+      <c r="I82" s="35">
         <f>I80-G82</f>
-        <v>-151.51</v>
+        <v>-126.50999999999998</v>
       </c>
       <c r="J82" s="8"/>
     </row>
@@ -3292,7 +3287,7 @@
       <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="73"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="9">
         <v>20230816002</v>
       </c>
@@ -3309,28 +3304,15 @@
       <c r="H83" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="44">
+      <c r="I83" s="43">
         <f>I81-G83</f>
         <v>20.54</v>
       </c>
       <c r="J83" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J68"/>
+  <autoFilter ref="B4:J83"/>
   <mergeCells count="33">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -3342,6 +3324,19 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C64:C65"/>
@@ -3355,7 +3350,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I52" formula="1"/>
+    <ignoredError sqref="I52 I44" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,17 +495,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,7 +519,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -529,15 +561,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,37 +573,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,66 +952,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1034,11 +1076,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
+      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,87 +1097,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="50"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1167,10 +1209,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="58">
         <v>45145</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="55">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1200,8 +1242,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1268,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1253,8 +1295,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1280,8 +1322,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1307,8 +1349,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1332,8 +1374,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1357,8 +1399,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1384,8 +1426,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1411,8 +1453,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1502,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="58">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1486,8 +1528,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="55">
+      <c r="B19" s="59"/>
+      <c r="C19" s="53">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1517,8 +1559,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1546,8 +1588,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1575,8 +1617,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="55">
+      <c r="B22" s="59"/>
+      <c r="C22" s="53">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1606,8 +1648,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1633,8 +1675,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1662,8 +1704,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="55">
+      <c r="B25" s="59"/>
+      <c r="C25" s="53">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1693,8 +1735,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="57"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1722,8 +1764,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="55">
+      <c r="B27" s="59"/>
+      <c r="C27" s="53">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1753,8 +1795,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1780,8 +1822,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="55">
+      <c r="B29" s="59"/>
+      <c r="C29" s="53">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1811,8 +1853,8 @@
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1907,7 @@
       <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="58">
         <v>45154</v>
       </c>
       <c r="C32" s="30"/>
@@ -1891,8 +1933,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="55">
+      <c r="B33" s="59"/>
+      <c r="C33" s="53">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1920,8 +1962,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1947,8 +1989,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1974,8 +2016,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2041,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2024,8 +2066,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2051,8 +2093,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="58">
+      <c r="B39" s="59"/>
+      <c r="C39" s="65">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2080,8 +2122,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" ref="I39:I50" si="1">I34-G40</f>
+        <f t="shared" ref="I40:I49" si="1">I34-G40</f>
         <v>24.04</v>
       </c>
       <c r="J40" s="19" t="s">
@@ -2107,8 +2149,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2134,8 +2176,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2159,8 +2201,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2226,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2251,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="58">
+      <c r="B45" s="59"/>
+      <c r="C45" s="65">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2238,8 +2280,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2265,8 +2307,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2292,8 +2334,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2305,18 +2347,20 @@
       <c r="H48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="41">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2328,18 +2372,20 @@
       <c r="H49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="41">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
-      <c r="J49" s="8"/>
+      <c r="J49" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2399,7 @@
       <c r="H50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="72">
+      <c r="I50" s="46">
         <f>I38-G50</f>
         <v>-0.22000000000000597</v>
       </c>
@@ -2365,10 +2411,10 @@
       <c r="A51" s="30">
         <v>1</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="58">
         <v>45157</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="69">
         <v>20230816001</v>
       </c>
       <c r="D51" s="30" t="s">
@@ -2398,8 +2444,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="56"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2425,8 +2471,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="57"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2454,8 +2500,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="55">
+      <c r="B54" s="59"/>
+      <c r="C54" s="53">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2485,8 +2531,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2512,8 +2558,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2541,8 +2587,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="55">
+      <c r="B57" s="59"/>
+      <c r="C57" s="53">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2570,8 +2616,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="56"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2597,8 +2643,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="57"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2626,8 +2672,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="55">
+      <c r="B60" s="59"/>
+      <c r="C60" s="53">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2655,8 +2701,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="57"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2684,8 +2730,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="55">
+      <c r="B62" s="59"/>
+      <c r="C62" s="53">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2713,8 +2759,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="57"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2742,8 +2788,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="55">
+      <c r="B64" s="59"/>
+      <c r="C64" s="53">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2769,8 +2815,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2842,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="63"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2825,7 +2871,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="63"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -2852,8 +2898,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="3">
+      <c r="B68" s="59"/>
+      <c r="C68" s="53">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2879,10 +2925,8 @@
       <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="6">
-        <v>20230814001</v>
-      </c>
+      <c r="B69" s="60"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="9" t="s">
         <v>43</v>
       </c>
@@ -2908,7 +2952,7 @@
       <c r="A70" s="30">
         <v>1</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="58">
         <v>45160</v>
       </c>
       <c r="C70" s="29">
@@ -2939,8 +2983,8 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="7">
+      <c r="B71" s="59"/>
+      <c r="C71" s="65">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -2968,17 +3012,15 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="7">
-        <v>20230816001</v>
-      </c>
+      <c r="B72" s="59"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="70"/>
       <c r="G72" s="7">
         <v>18.100000000000001</v>
       </c>
@@ -2997,8 +3039,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="7">
+      <c r="B73" s="59"/>
+      <c r="C73" s="65">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3026,10 +3068,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="7">
-        <v>20230816002</v>
-      </c>
+      <c r="B74" s="59"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3055,8 +3095,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="7">
+      <c r="B75" s="59"/>
+      <c r="C75" s="65">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3072,20 +3112,20 @@
       <c r="H75" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="36">
+      <c r="I75" s="7">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
-      <c r="J75" s="3"/>
+      <c r="J75" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="9">
-        <v>20230816003</v>
-      </c>
+      <c r="B76" s="60"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3099,42 +3139,44 @@
       <c r="H76" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="9">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
-      <c r="J76" s="6"/>
+      <c r="J76" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="44">
+      <c r="A77" s="43">
         <v>1</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="58">
         <v>45161</v>
       </c>
-      <c r="C77" s="44">
+      <c r="C77" s="43">
         <v>20230816001</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="44" t="s">
+      <c r="E77" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="43">
         <v>30.4</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="43">
         <v>42.12</v>
       </c>
-      <c r="I77" s="44">
+      <c r="I77" s="43">
         <f>I29+H77-G77</f>
         <v>14.409999999999997</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3142,7 +3184,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="63"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3173,7 +3215,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="64"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3192,7 +3234,7 @@
       <c r="H79" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="39">
         <f>I78-G79</f>
         <v>-15.910000000000004</v>
       </c>
@@ -3202,39 +3244,37 @@
       <c r="A80" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B80" s="74">
         <v>45162</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="71">
         <v>20230816001</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="29">
+      <c r="F80" s="85"/>
+      <c r="G80" s="10">
         <v>321.70999999999998</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="4">
         <v>275</v>
       </c>
-      <c r="I80" s="47">
+      <c r="I80" s="86">
         <f>H80-G80</f>
         <v>-46.70999999999998</v>
       </c>
-      <c r="J80" s="19"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="10">
         <v>2</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="7">
-        <v>20230816001</v>
-      </c>
+      <c r="B81" s="63"/>
+      <c r="C81" s="83"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3257,82 +3297,434 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="10">
         <v>3</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="7">
-        <v>20230816002</v>
-      </c>
+      <c r="B82" s="63"/>
+      <c r="C82" s="83"/>
       <c r="D82" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="3">
+        <f>I48-G82</f>
+        <v>24.349999999999998</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>4</v>
+      </c>
+      <c r="B83" s="63"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="3">
+        <f>I49-G83</f>
+        <v>24.349999999999998</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>5</v>
+      </c>
+      <c r="B84" s="63"/>
+      <c r="C84" s="76">
+        <v>20230816002</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="7">
         <v>79.8</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I82" s="35">
-        <f>I80-G82</f>
+      <c r="H84" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="35">
+        <f>I80-G84</f>
         <v>-126.50999999999998</v>
       </c>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>6</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="7">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="7">
+        <f>I81-G85</f>
+        <v>20.54</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>7</v>
+      </c>
+      <c r="B86" s="63"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="7">
+        <f>I82-G86</f>
+        <v>24.29</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
+        <v>8</v>
+      </c>
+      <c r="B87" s="64"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="9">
+        <f>I83-G87</f>
+        <v>24.29</v>
+      </c>
+      <c r="J87" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
+        <v>1</v>
+      </c>
+      <c r="B88" s="16">
+        <v>45164</v>
+      </c>
+      <c r="C88" s="45">
+        <v>20230822003</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="15">
+        <v>62.43</v>
+      </c>
+      <c r="H88" s="78">
+        <v>56.07</v>
+      </c>
+      <c r="I88" s="79">
+        <f>I79+H88-G88</f>
+        <v>-22.270000000000003</v>
+      </c>
+      <c r="J88" s="80"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <v>1</v>
+      </c>
+      <c r="B89" s="74">
+        <v>45166</v>
+      </c>
+      <c r="C89" s="75">
+        <v>20230822003</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="10">
+        <v>12.4</v>
+      </c>
+      <c r="H89" s="4">
+        <v>25</v>
+      </c>
+      <c r="I89" s="77">
+        <f>I75+H89-G89</f>
+        <v>22.410000000000004</v>
+      </c>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>2</v>
+      </c>
+      <c r="B90" s="63"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="H90" s="3">
+        <v>25</v>
+      </c>
+      <c r="I90" s="36">
+        <f>I76+H90-G90</f>
+        <v>22.410000000000004</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>3</v>
+      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="7">
+        <v>16.46</v>
+      </c>
+      <c r="H91" s="3">
+        <v>25</v>
+      </c>
+      <c r="I91" s="3">
+        <f>I85+H91-G91</f>
+        <v>29.08</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
         <v>4</v>
       </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="9">
-        <v>20230816002</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="3">
+        <f>I86-G92</f>
+        <v>24.09</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>5</v>
+      </c>
+      <c r="B93" s="63"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" s="3">
+        <f>I87-G93</f>
+        <v>24.09</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>6</v>
+      </c>
+      <c r="B94" s="63"/>
+      <c r="C94" s="53">
+        <v>20230816003</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E94" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="9">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="43">
-        <f>I81-G83</f>
-        <v>20.54</v>
-      </c>
-      <c r="J83" s="32"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="7">
+        <v>12.26</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" s="36">
+        <f>I91-G94</f>
+        <v>16.82</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>7</v>
+      </c>
+      <c r="B95" s="73"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="72"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="72">
+        <v>0.18</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="82">
+        <f>I92-G95</f>
+        <v>23.91</v>
+      </c>
+      <c r="J95" s="81"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>8</v>
+      </c>
+      <c r="B96" s="73"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="72"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="72">
+        <v>0.18</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="82">
+        <f>I93-G96</f>
+        <v>23.91</v>
+      </c>
+      <c r="J96" s="81"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
+        <v>9</v>
+      </c>
+      <c r="B97" s="64"/>
+      <c r="C97" s="6">
+        <v>20230825003</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="9">
+        <v>168.98</v>
+      </c>
+      <c r="H97" s="9">
+        <v>102.48</v>
+      </c>
+      <c r="I97" s="39">
+        <f>H97-G97</f>
+        <v>-66.499999999999986</v>
+      </c>
+      <c r="J97" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J83"/>
-  <mergeCells count="33">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B80:B83"/>
+  <autoFilter ref="B4:J97"/>
+  <mergeCells count="42">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="B80:B87"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="C45:C50"/>
@@ -3346,6 +3738,27 @@
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -240,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -371,11 +371,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,28 +513,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,6 +537,47 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,6 +590,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,90 +620,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,66 +1016,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1076,11 +1140,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,92 +1156,93 @@
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="57" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="49"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1209,10 +1274,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="62">
         <v>45145</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="69">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1242,8 +1307,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1268,8 +1333,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1348,7 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="37">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
@@ -1295,8 +1360,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1375,7 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="37">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -1322,8 +1387,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1402,7 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
@@ -1349,8 +1414,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1374,8 +1439,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1399,8 +1464,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1414,7 +1479,7 @@
       <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="37">
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
@@ -1426,8 +1491,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1453,8 +1518,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1567,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="62">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1528,8 +1593,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="53">
+      <c r="B19" s="63"/>
+      <c r="C19" s="67">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1559,8 +1624,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1588,8 +1653,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1617,8 +1682,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="53">
+      <c r="B22" s="63"/>
+      <c r="C22" s="67">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1648,8 +1713,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1675,8 +1740,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1704,8 +1769,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="53">
+      <c r="B25" s="63"/>
+      <c r="C25" s="67">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1735,8 +1800,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1764,8 +1829,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="53">
+      <c r="B27" s="63"/>
+      <c r="C27" s="67">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1795,8 +1860,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1887,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="53">
+      <c r="B29" s="63"/>
+      <c r="C29" s="67">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1853,8 +1918,8 @@
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1972,7 @@
       <c r="A32" s="29">
         <v>1</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="62">
         <v>45154</v>
       </c>
       <c r="C32" s="30"/>
@@ -1933,8 +1998,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="53">
+      <c r="B33" s="63"/>
+      <c r="C33" s="67">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1962,8 +2027,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -1989,8 +2054,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2016,8 +2081,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2041,8 +2106,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2066,8 +2131,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="61"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2093,8 +2158,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="65">
+      <c r="B39" s="63"/>
+      <c r="C39" s="75">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2110,7 +2175,7 @@
       <c r="H39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="38">
         <f>I33-G39</f>
         <v>24.04</v>
       </c>
@@ -2122,8 +2187,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2149,8 +2214,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2176,8 +2241,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2201,8 +2266,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2214,7 +2279,7 @@
       <c r="H43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="38">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
@@ -2226,8 +2291,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2251,8 +2316,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="65">
+      <c r="B45" s="63"/>
+      <c r="C45" s="75">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2268,7 +2333,7 @@
       <c r="H45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="38">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2280,8 +2345,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2360,7 @@
       <c r="H46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="38">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2307,8 +2372,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2387,7 @@
       <c r="H47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="38">
         <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
@@ -2334,8 +2399,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2347,7 +2412,7 @@
       <c r="H48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="38">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
@@ -2359,8 +2424,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="59"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2372,7 +2437,7 @@
       <c r="H49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="38">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
@@ -2384,8 +2449,8 @@
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
@@ -2399,7 +2464,7 @@
       <c r="H50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="42">
         <f>I38-G50</f>
         <v>-0.22000000000000597</v>
       </c>
@@ -2411,10 +2476,10 @@
       <c r="A51" s="30">
         <v>1</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="62">
         <v>45157</v>
       </c>
-      <c r="C51" s="69">
+      <c r="C51" s="74">
         <v>20230816001</v>
       </c>
       <c r="D51" s="30" t="s">
@@ -2432,11 +2497,11 @@
       <c r="H51" s="30">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="35">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="38" t="s">
+      <c r="J51" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2444,8 +2509,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2471,8 +2536,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="61"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2500,8 +2565,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="53">
+      <c r="B54" s="63"/>
+      <c r="C54" s="67">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2531,8 +2596,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="62"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2558,8 +2623,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="61"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2587,8 +2652,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="53">
+      <c r="B57" s="63"/>
+      <c r="C57" s="67">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2616,8 +2681,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2643,8 +2708,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="61"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2672,8 +2737,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="53">
+      <c r="B60" s="63"/>
+      <c r="C60" s="67">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2701,8 +2766,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="61"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2730,8 +2795,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="59"/>
-      <c r="C62" s="53">
+      <c r="B62" s="63"/>
+      <c r="C62" s="67">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2759,8 +2824,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="61"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2788,8 +2853,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="53">
+      <c r="B64" s="63"/>
+      <c r="C64" s="67">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2815,8 +2880,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="61"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2832,17 +2897,19 @@
       <c r="H65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="26">
         <f t="shared" si="3"/>
         <v>0.86999999999999567</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2859,7 +2926,7 @@
       <c r="H66" s="3">
         <v>175</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="27">
         <f>H66-G66</f>
         <v>88.9</v>
       </c>
@@ -2871,7 +2938,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -2888,7 +2955,7 @@
       <c r="H67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="33">
         <f>I66-G67</f>
         <v>60.100000000000009</v>
       </c>
@@ -2898,8 +2965,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="53">
+      <c r="B68" s="63"/>
+      <c r="C68" s="67">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2915,7 +2982,7 @@
       <c r="H68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="49">
         <f>I67-G68</f>
         <v>-3.8599999999999923</v>
       </c>
@@ -2925,8 +2992,8 @@
       <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="9" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +3009,7 @@
       <c r="H69" s="6">
         <v>77.44</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="50">
         <f>H69-G69</f>
         <v>-4.2000000000000028</v>
       </c>
@@ -2952,7 +3019,7 @@
       <c r="A70" s="30">
         <v>1</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="62">
         <v>45160</v>
       </c>
       <c r="C70" s="29">
@@ -2973,7 +3040,7 @@
       <c r="H70" s="30">
         <v>95.77</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="51">
         <f>H70-G70</f>
         <v>0.86999999999999034</v>
       </c>
@@ -2983,8 +3050,8 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="65">
+      <c r="B71" s="63"/>
+      <c r="C71" s="75">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3000,7 +3067,7 @@
       <c r="H71" s="3">
         <v>25</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="26">
         <f>I45+H71-G71</f>
         <v>27.86</v>
       </c>
@@ -3012,22 +3079,22 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="67"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="70"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="7">
         <v>18.100000000000001</v>
       </c>
       <c r="H72" s="7">
         <v>25</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="27">
         <f>I46+H72-G72</f>
         <v>27.86</v>
       </c>
@@ -3039,8 +3106,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="65">
+      <c r="B73" s="63"/>
+      <c r="C73" s="75">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3056,7 +3123,7 @@
       <c r="H73" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="27">
         <f>I71-G73</f>
         <v>23.38</v>
       </c>
@@ -3068,8 +3135,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3083,7 +3150,7 @@
       <c r="H74" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="27">
         <f>I72-G74</f>
         <v>23.38</v>
       </c>
@@ -3095,8 +3162,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="59"/>
-      <c r="C75" s="65">
+      <c r="B75" s="63"/>
+      <c r="C75" s="75">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3112,7 +3179,7 @@
       <c r="H75" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="26">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
@@ -3124,8 +3191,8 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="60"/>
-      <c r="C76" s="68"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3206,7 @@
       <c r="H76" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="52">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
@@ -3148,35 +3215,35 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="39">
         <v>1</v>
       </c>
-      <c r="B77" s="58">
+      <c r="B77" s="62">
         <v>45161</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="39">
         <v>20230816001</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="43" t="s">
+      <c r="E77" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="43">
+      <c r="G77" s="39">
         <v>30.4</v>
       </c>
-      <c r="H77" s="43">
-        <v>42.12</v>
-      </c>
-      <c r="I77" s="43">
-        <f>I29+H77-G77</f>
-        <v>14.409999999999997</v>
-      </c>
-      <c r="J77" s="44" t="s">
+      <c r="H77" s="39">
+        <v>60.72</v>
+      </c>
+      <c r="I77" s="53">
+        <f>H77-G77</f>
+        <v>30.32</v>
+      </c>
+      <c r="J77" s="40" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3184,7 +3251,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="59"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3203,9 +3270,9 @@
       <c r="H78" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="27">
         <f>I77-G78</f>
-        <v>6.8699999999999966</v>
+        <v>22.78</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>41</v>
@@ -3215,7 +3282,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="60"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3234,20 +3301,22 @@
       <c r="H79" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="39">
+      <c r="I79" s="89">
         <f>I78-G79</f>
-        <v>-15.910000000000004</v>
-      </c>
-      <c r="J79" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="74">
+      <c r="B80" s="79">
         <v>45162</v>
       </c>
-      <c r="C80" s="71">
+      <c r="C80" s="86">
         <v>20230816001</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3256,14 +3325,14 @@
       <c r="E80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="85"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="10">
         <v>321.70999999999998</v>
       </c>
       <c r="H80" s="4">
         <v>275</v>
       </c>
-      <c r="I80" s="86">
+      <c r="I80" s="54">
         <f>H80-G80</f>
         <v>-46.70999999999998</v>
       </c>
@@ -3273,8 +3342,8 @@
       <c r="A81" s="10">
         <v>2</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="83"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="87"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3288,7 +3357,7 @@
       <c r="H81" s="3">
         <v>25</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="27">
         <f>I47+H81-G81</f>
         <v>24.599999999999998</v>
       </c>
@@ -3300,8 +3369,8 @@
       <c r="A82" s="10">
         <v>3</v>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="83"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="87"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3382,7 @@
       <c r="H82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="27">
         <f>I48-G82</f>
         <v>24.349999999999998</v>
       </c>
@@ -3325,8 +3394,8 @@
       <c r="A83" s="10">
         <v>4</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="83"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="87"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
@@ -3338,7 +3407,7 @@
       <c r="H83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="27">
         <f>I49-G83</f>
         <v>24.349999999999998</v>
       </c>
@@ -3350,8 +3419,8 @@
       <c r="A84" s="10">
         <v>5</v>
       </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="76">
+      <c r="B84" s="80"/>
+      <c r="C84" s="84">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3367,7 +3436,7 @@
       <c r="H84" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="49">
         <f>I80-G84</f>
         <v>-126.50999999999998</v>
       </c>
@@ -3377,8 +3446,8 @@
       <c r="A85" s="10">
         <v>6</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="76"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="84"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3461,7 @@
       <c r="H85" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="26">
         <f>I81-G85</f>
         <v>20.54</v>
       </c>
@@ -3404,8 +3473,8 @@
       <c r="A86" s="10">
         <v>7</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="76"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="84"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3486,7 @@
       <c r="H86" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="26">
         <f>I82-G86</f>
         <v>24.29</v>
       </c>
@@ -3429,8 +3498,8 @@
       <c r="A87" s="15">
         <v>8</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="84"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="85"/>
       <c r="D87" s="9" t="s">
         <v>23</v>
       </c>
@@ -3442,7 +3511,7 @@
       <c r="H87" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="52">
         <f>I83-G87</f>
         <v>24.29</v>
       </c>
@@ -3457,7 +3526,7 @@
       <c r="B88" s="16">
         <v>45164</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="41">
         <v>20230822003</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -3472,23 +3541,25 @@
       <c r="G88" s="15">
         <v>62.43</v>
       </c>
-      <c r="H88" s="78">
-        <v>56.07</v>
-      </c>
-      <c r="I88" s="79">
-        <f>I79+H88-G88</f>
-        <v>-22.270000000000003</v>
-      </c>
-      <c r="J88" s="80"/>
+      <c r="H88" s="45">
+        <v>62.43</v>
+      </c>
+      <c r="I88" s="90">
+        <f>H88-G88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>1</v>
       </c>
-      <c r="B89" s="74">
+      <c r="B89" s="79">
         <v>45166</v>
       </c>
-      <c r="C89" s="75">
+      <c r="C89" s="83">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3504,7 +3575,7 @@
       <c r="H89" s="4">
         <v>25</v>
       </c>
-      <c r="I89" s="77">
+      <c r="I89" s="55">
         <f>I75+H89-G89</f>
         <v>22.410000000000004</v>
       </c>
@@ -3514,8 +3585,8 @@
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="66"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="77"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3529,7 +3600,7 @@
       <c r="H90" s="3">
         <v>25</v>
       </c>
-      <c r="I90" s="36">
+      <c r="I90" s="33">
         <f>I76+H90-G90</f>
         <v>22.410000000000004</v>
       </c>
@@ -3539,8 +3610,8 @@
       <c r="A91" s="10">
         <v>3</v>
       </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="66"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="77"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3554,7 +3625,7 @@
       <c r="H91" s="3">
         <v>25</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="27">
         <f>I85+H91-G91</f>
         <v>29.08</v>
       </c>
@@ -3566,8 +3637,8 @@
       <c r="A92" s="10">
         <v>4</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="77"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3650,7 @@
       <c r="H92" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="27">
         <f>I86-G92</f>
         <v>24.09</v>
       </c>
@@ -3591,8 +3662,8 @@
       <c r="A93" s="10">
         <v>5</v>
       </c>
-      <c r="B93" s="63"/>
-      <c r="C93" s="67"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3604,7 +3675,7 @@
       <c r="H93" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="27">
         <f>I87-G93</f>
         <v>24.09</v>
       </c>
@@ -3616,8 +3687,8 @@
       <c r="A94" s="10">
         <v>6</v>
       </c>
-      <c r="B94" s="63"/>
-      <c r="C94" s="53">
+      <c r="B94" s="80"/>
+      <c r="C94" s="67">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3633,7 +3704,7 @@
       <c r="H94" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I94" s="36">
+      <c r="I94" s="33">
         <f>I91-G94</f>
         <v>16.82</v>
       </c>
@@ -3643,53 +3714,53 @@
       <c r="A95" s="10">
         <v>7</v>
       </c>
-      <c r="B95" s="73"/>
-      <c r="C95" s="62"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="73"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="72"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="72">
+      <c r="E95" s="44"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="44">
         <v>0.18</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="82">
+      <c r="I95" s="56">
         <f>I92-G95</f>
         <v>23.91</v>
       </c>
-      <c r="J95" s="81"/>
+      <c r="J95" s="46"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>8</v>
       </c>
-      <c r="B96" s="73"/>
-      <c r="C96" s="61"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="72"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="72">
+      <c r="E96" s="44"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="44">
         <v>0.18</v>
       </c>
       <c r="H96" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I96" s="82">
+      <c r="I96" s="56">
         <f>I93-G96</f>
         <v>23.91</v>
       </c>
-      <c r="J96" s="81"/>
+      <c r="J96" s="46"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>9</v>
       </c>
-      <c r="B97" s="64"/>
+      <c r="B97" s="82"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
@@ -3708,29 +3779,141 @@
       <c r="H97" s="9">
         <v>102.48</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="50">
         <f>H97-G97</f>
         <v>-66.499999999999986</v>
       </c>
       <c r="J97" s="6"/>
     </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="29">
+        <v>1</v>
+      </c>
+      <c r="B98" s="62">
+        <v>45167</v>
+      </c>
+      <c r="C98" s="91">
+        <v>20230822003</v>
+      </c>
+      <c r="D98" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="G98" s="92">
+        <v>20.53</v>
+      </c>
+      <c r="H98" s="92">
+        <v>42.89</v>
+      </c>
+      <c r="I98" s="93">
+        <f>I65+H98-G98</f>
+        <v>23.229999999999997</v>
+      </c>
+      <c r="J98" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>2</v>
+      </c>
+      <c r="B99" s="63"/>
+      <c r="C99" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G99" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="27">
+        <f>I98-G99</f>
+        <v>10.279999999999998</v>
+      </c>
+      <c r="J99" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="48">
+        <v>3</v>
+      </c>
+      <c r="B100" s="63"/>
+      <c r="C100" s="88">
+        <v>20230825001</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G100" s="7">
+        <v>11.32</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="49">
+        <f>I99-G100</f>
+        <v>-1.0400000000000027</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>4</v>
+      </c>
+      <c r="B101" s="64"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="9">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="H101" s="6">
+        <v>19.18</v>
+      </c>
+      <c r="I101" s="50">
+        <f>H101-G101</f>
+        <v>-15.189999999999998</v>
+      </c>
+      <c r="J101" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J97"/>
-  <mergeCells count="42">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C68:C69"/>
+  <mergeCells count="44">
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
     <mergeCell ref="B89:B97"/>
     <mergeCell ref="C89:C93"/>
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C84:C87"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="B77:B79"/>
@@ -3740,14 +3923,18 @@
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C68:C69"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B32:B50"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -3759,6 +3946,10 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -240,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -413,11 +413,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,7 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,13 +601,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +637,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -599,18 +682,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,75 +731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,66 +1060,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1140,16 +1184,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="5" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
@@ -1157,92 +1201,92 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="61" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -1274,10 +1318,10 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="78">
         <v>45145</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="95">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1307,8 +1351,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1333,8 +1377,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1392,7 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
@@ -1360,8 +1404,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1419,7 @@
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -1387,8 +1431,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1446,7 @@
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
@@ -1414,8 +1458,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1439,8 +1483,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1464,8 +1508,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1523,7 @@
       <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
@@ -1491,8 +1535,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1562,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1558,7 +1602,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="14" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1611,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="78">
         <v>45147</v>
       </c>
       <c r="C18" s="18">
@@ -1593,8 +1637,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="67">
+      <c r="B19" s="79"/>
+      <c r="C19" s="74">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1612,7 +1656,7 @@
       <c r="H19" s="3">
         <v>177.03</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <f>H19-G19</f>
         <v>170.39000000000001</v>
       </c>
@@ -1624,8 +1668,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1641,7 +1685,7 @@
       <c r="H20" s="3">
         <v>44.1</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <f>H20-G20</f>
         <v>6.4600000000000009</v>
       </c>
@@ -1653,8 +1697,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1670,7 +1714,7 @@
       <c r="H21" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <f>H21-G21</f>
         <v>20.57</v>
       </c>
@@ -1682,8 +1726,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="67">
+      <c r="B22" s="79"/>
+      <c r="C22" s="74">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1701,7 +1745,7 @@
       <c r="H22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f>I19-G22</f>
         <v>169.34</v>
       </c>
@@ -1713,8 +1757,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1730,7 +1774,7 @@
       <c r="H23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f>I20-G23</f>
         <v>0.51000000000000068</v>
       </c>
@@ -1740,8 +1784,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1801,7 @@
       <c r="H24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <f>I21-G24</f>
         <v>18.18</v>
       </c>
@@ -1769,8 +1813,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="67">
+      <c r="B25" s="79"/>
+      <c r="C25" s="74">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1788,7 +1832,7 @@
       <c r="H25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <f>I22-G25</f>
         <v>41.59</v>
       </c>
@@ -1800,8 +1844,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1861,7 @@
       <c r="H26" s="3">
         <v>143.58000000000001</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <f>H26-G26</f>
         <v>33.680000000000007</v>
       </c>
@@ -1829,8 +1873,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="67">
+      <c r="B27" s="79"/>
+      <c r="C27" s="74">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1848,7 +1892,7 @@
       <c r="H27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <f>I25-G27</f>
         <v>3.3400000000000034</v>
       </c>
@@ -1860,8 +1904,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1877,7 +1921,7 @@
       <c r="H28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="32">
         <f>I26-G28</f>
         <v>0.8300000000000054</v>
       </c>
@@ -1887,8 +1931,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="67">
+      <c r="B29" s="79"/>
+      <c r="C29" s="74">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1906,7 +1950,7 @@
       <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <f>I24-G29</f>
         <v>2.6899999999999995</v>
       </c>
@@ -1918,8 +1962,8 @@
       <c r="A30" s="9">
         <v>13</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1976,7 @@
       <c r="G30" s="9">
         <v>3.34</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="19">
@@ -1963,34 +2007,34 @@
       <c r="H31" s="15">
         <v>23.68</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>1</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="78">
         <v>45154</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="29">
+      <c r="G32" s="29"/>
+      <c r="H32" s="28">
         <v>35.42</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="30" t="s">
+      <c r="I32" s="30"/>
+      <c r="J32" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1998,8 +2042,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="67">
+      <c r="B33" s="79"/>
+      <c r="C33" s="74">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2015,7 +2059,7 @@
       <c r="H33" s="7">
         <v>25</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="25">
         <f>SUM(I9+H33-G33)</f>
         <v>25.46</v>
       </c>
@@ -2027,8 +2071,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2042,7 +2086,7 @@
       <c r="H34" s="7">
         <v>25</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="25">
         <f>SUM(I10+H34-G34)</f>
         <v>25.46</v>
       </c>
@@ -2054,8 +2098,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2113,7 @@
       <c r="H35" s="7">
         <v>25</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="25">
         <f>SUM(I11+H35-G35)</f>
         <v>21.35</v>
       </c>
@@ -2081,8 +2125,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2106,8 +2150,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2131,8 +2175,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2158,8 +2202,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="75">
+      <c r="B39" s="79"/>
+      <c r="C39" s="91">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2175,7 +2219,7 @@
       <c r="H39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="37">
         <f>I33-G39</f>
         <v>24.04</v>
       </c>
@@ -2187,8 +2231,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="77"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2214,8 +2258,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="77"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2241,8 +2285,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2266,8 +2310,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="77"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2323,7 @@
       <c r="H43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="37">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
@@ -2291,8 +2335,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2306,18 +2350,20 @@
       <c r="H44" s="19">
         <v>25</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="33">
         <f>H44-G44</f>
         <v>0.85000000000000142</v>
       </c>
-      <c r="J44" s="19"/>
+      <c r="J44" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="75">
+      <c r="B45" s="79"/>
+      <c r="C45" s="91">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2333,7 +2379,7 @@
       <c r="H45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="37">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2345,8 +2391,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2360,7 +2406,7 @@
       <c r="H46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="37">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
@@ -2372,8 +2418,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="77"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2433,7 @@
       <c r="H47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="37">
         <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
@@ -2399,8 +2445,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="77"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2412,7 +2458,7 @@
       <c r="H48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="37">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
@@ -2424,8 +2470,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2483,7 @@
       <c r="H49" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="37">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
@@ -2449,22 +2495,22 @@
       <c r="A50" s="9">
         <v>19</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="9">
         <v>48.13</v>
       </c>
-      <c r="H50" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="42">
+      <c r="H50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="41">
         <f>I38-G50</f>
         <v>-0.22000000000000597</v>
       </c>
@@ -2473,35 +2519,35 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="29">
         <v>1</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="78">
         <v>45157</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="90">
         <v>20230816001</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <v>75.44</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="29">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="34">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J51" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2509,8 +2555,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2524,7 +2570,7 @@
       <c r="H52" s="3">
         <v>15.3</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="26">
         <f>I15+H52-G52</f>
         <v>12.610000000000003</v>
       </c>
@@ -2536,8 +2582,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2599,7 @@
       <c r="H53" s="3">
         <v>108.3</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="26">
         <f>H53-G53</f>
         <v>68.55</v>
       </c>
@@ -2565,8 +2611,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="67">
+      <c r="B54" s="79"/>
+      <c r="C54" s="74">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2584,7 +2630,7 @@
       <c r="H54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="26">
         <f t="shared" ref="I54:I59" si="2">I51-G54</f>
         <v>59.860000000000014</v>
       </c>
@@ -2596,8 +2642,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="73"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2611,7 +2657,7 @@
       <c r="H55" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="26">
         <f t="shared" si="2"/>
         <v>10.910000000000004</v>
       </c>
@@ -2623,8 +2669,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="72"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2640,7 +2686,7 @@
       <c r="H56" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="26">
         <f t="shared" si="2"/>
         <v>58.699999999999996</v>
       </c>
@@ -2652,8 +2698,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="67">
+      <c r="B57" s="79"/>
+      <c r="C57" s="74">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2671,7 +2717,7 @@
       <c r="H57" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="32">
         <f t="shared" si="2"/>
         <v>3.2500000000000142</v>
       </c>
@@ -2681,8 +2727,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="73"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2696,7 +2742,7 @@
       <c r="H58" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="26">
         <f t="shared" si="2"/>
         <v>5.7900000000000036</v>
       </c>
@@ -2708,8 +2754,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2771,7 @@
       <c r="H59" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="26">
         <f t="shared" si="2"/>
         <v>28.929999999999996</v>
       </c>
@@ -2737,8 +2783,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="67">
+      <c r="B60" s="79"/>
+      <c r="C60" s="74">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2754,7 +2800,7 @@
       <c r="H60" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="26">
         <f t="shared" ref="I60:I65" si="3">I58-G60</f>
         <v>5.2500000000000036</v>
       </c>
@@ -2766,8 +2812,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="72"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="86"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2829,7 @@
       <c r="H61" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="26">
         <f t="shared" si="3"/>
         <v>25.809999999999995</v>
       </c>
@@ -2795,8 +2841,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="67">
+      <c r="B62" s="79"/>
+      <c r="C62" s="74">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2812,7 +2858,7 @@
       <c r="H62" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="26">
         <f t="shared" si="3"/>
         <v>1.8400000000000034</v>
       </c>
@@ -2824,8 +2870,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="72"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +2887,7 @@
       <c r="H63" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="26">
         <f t="shared" si="3"/>
         <v>5.9699999999999953</v>
       </c>
@@ -2853,8 +2899,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="67">
+      <c r="B64" s="79"/>
+      <c r="C64" s="74">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2870,18 +2916,20 @@
       <c r="H64" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="32">
         <f t="shared" si="3"/>
         <v>0.17000000000000348</v>
       </c>
-      <c r="J64" s="3"/>
+      <c r="J64" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="72"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="86"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2945,7 @@
       <c r="H65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="25">
         <f t="shared" si="3"/>
         <v>0.86999999999999567</v>
       </c>
@@ -2909,7 +2957,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="63"/>
+      <c r="B66" s="79"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2926,7 +2974,7 @@
       <c r="H66" s="3">
         <v>175</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="26">
         <f>H66-G66</f>
         <v>88.9</v>
       </c>
@@ -2938,7 +2986,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="63"/>
+      <c r="B67" s="79"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -2955,7 +3003,7 @@
       <c r="H67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="32">
         <f>I66-G67</f>
         <v>60.100000000000009</v>
       </c>
@@ -2965,8 +3013,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="67">
+      <c r="B68" s="79"/>
+      <c r="C68" s="74">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -2982,7 +3030,7 @@
       <c r="H68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="49">
+      <c r="I68" s="48">
         <f>I67-G68</f>
         <v>-3.8599999999999923</v>
       </c>
@@ -2992,8 +3040,8 @@
       <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="68"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="9" t="s">
         <v>43</v>
       </c>
@@ -3009,49 +3057,49 @@
       <c r="H69" s="6">
         <v>77.44</v>
       </c>
-      <c r="I69" s="50">
+      <c r="I69" s="49">
         <f>H69-G69</f>
         <v>-4.2000000000000028</v>
       </c>
-      <c r="J69" s="32"/>
+      <c r="J69" s="31"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="A70" s="29">
         <v>1</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="78">
         <v>45160</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="28">
         <v>20230814001</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="30" t="s">
+      <c r="E70" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="28">
         <v>94.9</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="29">
         <v>95.77</v>
       </c>
-      <c r="I70" s="51">
+      <c r="I70" s="50">
         <f>H70-G70</f>
         <v>0.86999999999999034</v>
       </c>
-      <c r="J70" s="30"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="75">
+      <c r="B71" s="79"/>
+      <c r="C71" s="91">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3067,7 +3115,7 @@
       <c r="H71" s="3">
         <v>25</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="25">
         <f>I45+H71-G71</f>
         <v>27.86</v>
       </c>
@@ -3079,22 +3127,22 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="76"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="68"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="43"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="7">
         <v>18.100000000000001</v>
       </c>
       <c r="H72" s="7">
         <v>25</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="26">
         <f>I46+H72-G72</f>
         <v>27.86</v>
       </c>
@@ -3106,8 +3154,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="75">
+      <c r="B73" s="79"/>
+      <c r="C73" s="91">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3123,7 +3171,7 @@
       <c r="H73" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="26">
         <f>I71-G73</f>
         <v>23.38</v>
       </c>
@@ -3135,8 +3183,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="76"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3150,7 +3198,7 @@
       <c r="H74" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I74" s="26">
         <f>I72-G74</f>
         <v>23.38</v>
       </c>
@@ -3162,8 +3210,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="75">
+      <c r="B75" s="79"/>
+      <c r="C75" s="91">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3179,7 +3227,7 @@
       <c r="H75" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="25">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
@@ -3191,22 +3239,22 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="78"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F76" s="32"/>
+      <c r="F76" s="31"/>
       <c r="G76" s="9">
         <v>13.57</v>
       </c>
-      <c r="H76" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="52">
+      <c r="H76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="51">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
@@ -3215,35 +3263,35 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
+      <c r="A77" s="38">
         <v>1</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="78">
         <v>45161</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="38">
         <v>20230816001</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="39" t="s">
+      <c r="E77" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="39">
+      <c r="G77" s="38">
         <v>30.4</v>
       </c>
-      <c r="H77" s="39">
+      <c r="H77" s="38">
         <v>60.72</v>
       </c>
-      <c r="I77" s="53">
+      <c r="I77" s="52">
         <f>H77-G77</f>
         <v>30.32</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3251,7 +3299,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="63"/>
+      <c r="B78" s="79"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3270,7 +3318,7 @@
       <c r="H78" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="26">
         <f>I77-G78</f>
         <v>22.78</v>
       </c>
@@ -3282,7 +3330,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="64"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3298,10 +3346,10 @@
       <c r="G79" s="9">
         <v>22.78</v>
       </c>
-      <c r="H79" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" s="89">
+      <c r="H79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="55">
         <f>I78-G79</f>
         <v>0</v>
       </c>
@@ -3310,13 +3358,13 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
+      <c r="A80" s="28">
         <v>1</v>
       </c>
-      <c r="B80" s="79">
+      <c r="B80" s="81">
         <v>45162</v>
       </c>
-      <c r="C80" s="86">
+      <c r="C80" s="88">
         <v>20230816001</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3325,14 +3373,14 @@
       <c r="E80" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="47"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="10">
         <v>321.70999999999998</v>
       </c>
       <c r="H80" s="4">
         <v>275</v>
       </c>
-      <c r="I80" s="54">
+      <c r="I80" s="53">
         <f>H80-G80</f>
         <v>-46.70999999999998</v>
       </c>
@@ -3342,8 +3390,8 @@
       <c r="A81" s="10">
         <v>2</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="87"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3357,7 +3405,7 @@
       <c r="H81" s="3">
         <v>25</v>
       </c>
-      <c r="I81" s="27">
+      <c r="I81" s="26">
         <f>I47+H81-G81</f>
         <v>24.599999999999998</v>
       </c>
@@ -3369,8 +3417,8 @@
       <c r="A82" s="10">
         <v>3</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="87"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
@@ -3382,7 +3430,7 @@
       <c r="H82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="26">
         <f>I48-G82</f>
         <v>24.349999999999998</v>
       </c>
@@ -3394,8 +3442,8 @@
       <c r="A83" s="10">
         <v>4</v>
       </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="87"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
@@ -3407,7 +3455,7 @@
       <c r="H83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="26">
         <f>I49-G83</f>
         <v>24.349999999999998</v>
       </c>
@@ -3419,8 +3467,8 @@
       <c r="A84" s="10">
         <v>5</v>
       </c>
-      <c r="B84" s="80"/>
-      <c r="C84" s="84">
+      <c r="B84" s="82"/>
+      <c r="C84" s="69">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3436,7 +3484,7 @@
       <c r="H84" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="49">
+      <c r="I84" s="48">
         <f>I80-G84</f>
         <v>-126.50999999999998</v>
       </c>
@@ -3446,8 +3494,8 @@
       <c r="A85" s="10">
         <v>6</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="84"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
@@ -3461,7 +3509,7 @@
       <c r="H85" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="26">
+      <c r="I85" s="25">
         <f>I81-G85</f>
         <v>20.54</v>
       </c>
@@ -3473,8 +3521,8 @@
       <c r="A86" s="10">
         <v>7</v>
       </c>
-      <c r="B86" s="80"/>
-      <c r="C86" s="84"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3534,7 @@
       <c r="H86" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I86" s="26">
+      <c r="I86" s="25">
         <f>I82-G86</f>
         <v>24.29</v>
       </c>
@@ -3498,24 +3546,24 @@
       <c r="A87" s="15">
         <v>8</v>
       </c>
-      <c r="B87" s="82"/>
-      <c r="C87" s="85"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="87"/>
       <c r="D87" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="32"/>
+      <c r="F87" s="31"/>
       <c r="G87" s="9">
         <v>0.06</v>
       </c>
-      <c r="H87" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" s="52">
+      <c r="H87" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="51">
         <f>I83-G87</f>
         <v>24.29</v>
       </c>
-      <c r="J87" s="28" t="s">
+      <c r="J87" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3526,7 +3574,7 @@
       <c r="B88" s="16">
         <v>45164</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C88" s="40">
         <v>20230822003</v>
       </c>
       <c r="D88" s="17" t="s">
@@ -3541,25 +3589,25 @@
       <c r="G88" s="15">
         <v>62.43</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="44">
         <v>62.43</v>
       </c>
-      <c r="I88" s="90">
+      <c r="I88" s="56">
         <f>H88-G88</f>
         <v>0</v>
       </c>
-      <c r="J88" s="28" t="s">
+      <c r="J88" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="29">
+      <c r="A89" s="28">
         <v>1</v>
       </c>
-      <c r="B89" s="79">
+      <c r="B89" s="81">
         <v>45166</v>
       </c>
-      <c r="C89" s="83">
+      <c r="C89" s="66">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3575,18 +3623,20 @@
       <c r="H89" s="4">
         <v>25</v>
       </c>
-      <c r="I89" s="55">
+      <c r="I89" s="36">
         <f>I75+H89-G89</f>
         <v>22.410000000000004</v>
       </c>
-      <c r="J89" s="4"/>
+      <c r="J89" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="80"/>
-      <c r="C90" s="77"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3600,18 +3650,20 @@
       <c r="H90" s="3">
         <v>25</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="25">
         <f>I76+H90-G90</f>
         <v>22.410000000000004</v>
       </c>
-      <c r="J90" s="3"/>
+      <c r="J90" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>3</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="77"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3677,7 @@
       <c r="H91" s="3">
         <v>25</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="26">
         <f>I85+H91-G91</f>
         <v>29.08</v>
       </c>
@@ -3637,8 +3689,8 @@
       <c r="A92" s="10">
         <v>4</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="77"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3650,7 +3702,7 @@
       <c r="H92" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="26">
         <f>I86-G92</f>
         <v>24.09</v>
       </c>
@@ -3662,8 +3714,8 @@
       <c r="A93" s="10">
         <v>5</v>
       </c>
-      <c r="B93" s="80"/>
-      <c r="C93" s="76"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="68"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3675,7 +3727,7 @@
       <c r="H93" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="26">
         <f>I87-G93</f>
         <v>24.09</v>
       </c>
@@ -3687,8 +3739,8 @@
       <c r="A94" s="10">
         <v>6</v>
       </c>
-      <c r="B94" s="80"/>
-      <c r="C94" s="67">
+      <c r="B94" s="82"/>
+      <c r="C94" s="74">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3704,7 +3756,7 @@
       <c r="H94" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I94" s="33">
+      <c r="I94" s="32">
         <f>I91-G94</f>
         <v>16.82</v>
       </c>
@@ -3714,53 +3766,53 @@
       <c r="A95" s="10">
         <v>7</v>
       </c>
-      <c r="B95" s="81"/>
-      <c r="C95" s="73"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="85"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="44"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="44">
+      <c r="E95" s="43"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="43">
         <v>0.18</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="56">
+      <c r="I95" s="54">
         <f>I92-G95</f>
         <v>23.91</v>
       </c>
-      <c r="J95" s="46"/>
+      <c r="J95" s="45"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>8</v>
       </c>
-      <c r="B96" s="81"/>
-      <c r="C96" s="72"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="86"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="44"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="44">
+      <c r="E96" s="43"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="43">
         <v>0.18</v>
       </c>
       <c r="H96" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I96" s="56">
+      <c r="I96" s="54">
         <f>I93-G96</f>
         <v>23.91</v>
       </c>
-      <c r="J96" s="46"/>
+      <c r="J96" s="45"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>9</v>
       </c>
-      <c r="B97" s="82"/>
+      <c r="B97" s="84"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
@@ -3777,44 +3829,45 @@
         <v>168.98</v>
       </c>
       <c r="H97" s="9">
-        <v>102.48</v>
-      </c>
-      <c r="I97" s="50">
+        <f>48.9 + 34.56</f>
+        <v>83.460000000000008</v>
+      </c>
+      <c r="I97" s="49">
         <f>H97-G97</f>
-        <v>-66.499999999999986</v>
+        <v>-85.519999999999982</v>
       </c>
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="29">
+      <c r="A98" s="28">
         <v>1</v>
       </c>
-      <c r="B98" s="62">
+      <c r="B98" s="78">
         <v>45167</v>
       </c>
-      <c r="C98" s="91">
+      <c r="C98" s="57">
         <v>20230822003</v>
       </c>
-      <c r="D98" s="92" t="s">
+      <c r="D98" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="39">
+      <c r="E98" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="38">
         <v>0.12</v>
       </c>
-      <c r="G98" s="92">
+      <c r="G98" s="58">
         <v>20.53</v>
       </c>
-      <c r="H98" s="92">
+      <c r="H98" s="58">
         <v>42.89</v>
       </c>
-      <c r="I98" s="93">
+      <c r="I98" s="59">
         <f>I65+H98-G98</f>
         <v>23.229999999999997</v>
       </c>
-      <c r="J98" s="40" t="s">
+      <c r="J98" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3822,7 +3875,7 @@
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="63"/>
+      <c r="B99" s="79"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3841,7 +3894,7 @@
       <c r="H99" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I99" s="27">
+      <c r="I99" s="26">
         <f>I98-G99</f>
         <v>10.279999999999998</v>
       </c>
@@ -3850,11 +3903,11 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="48">
+      <c r="A100" s="47">
         <v>3</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="88">
+      <c r="B100" s="79"/>
+      <c r="C100" s="76">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3870,7 +3923,7 @@
         <v>11.32</v>
       </c>
       <c r="H100" s="19"/>
-      <c r="I100" s="49">
+      <c r="I100" s="48">
         <f>I99-G100</f>
         <v>-1.0400000000000027</v>
       </c>
@@ -3880,8 +3933,8 @@
       <c r="A101" s="9">
         <v>4</v>
       </c>
-      <c r="B101" s="64"/>
-      <c r="C101" s="94"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="77"/>
       <c r="D101" s="17" t="s">
         <v>16</v>
       </c>
@@ -3895,22 +3948,396 @@
         <v>34.369999999999997</v>
       </c>
       <c r="H101" s="6">
-        <v>19.18</v>
-      </c>
-      <c r="I101" s="50">
+        <v>36.78</v>
+      </c>
+      <c r="I101" s="55">
         <f>H101-G101</f>
-        <v>-15.189999999999998</v>
+        <v>2.4100000000000037</v>
       </c>
       <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>1</v>
+      </c>
+      <c r="B102" s="71">
+        <v>45168</v>
+      </c>
+      <c r="C102" s="66">
+        <v>20230825001</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="10">
+        <v>6.84</v>
+      </c>
+      <c r="H102" s="10">
+        <v>50</v>
+      </c>
+      <c r="I102" s="23">
+        <f>I89+H102-G102</f>
+        <v>65.569999999999993</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2</v>
+      </c>
+      <c r="B103" s="72"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="7">
+        <v>6.84</v>
+      </c>
+      <c r="H103" s="7">
+        <v>50</v>
+      </c>
+      <c r="I103" s="26">
+        <f>I90+H103-G103</f>
+        <v>65.569999999999993</v>
+      </c>
+      <c r="J103" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>3</v>
+      </c>
+      <c r="B104" s="72"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="H104" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="I104" s="26">
+        <f>H104-G104</f>
+        <v>24.8</v>
+      </c>
+      <c r="J104" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>4</v>
+      </c>
+      <c r="B105" s="72"/>
+      <c r="C105" s="69">
+        <v>20230825002</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="26">
+        <f t="shared" ref="I105:I113" si="4">I102-G105</f>
+        <v>63.509999999999991</v>
+      </c>
+      <c r="J105" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>5</v>
+      </c>
+      <c r="B106" s="72"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="26">
+        <f t="shared" si="4"/>
+        <v>63.509999999999991</v>
+      </c>
+      <c r="J106" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>6</v>
+      </c>
+      <c r="B107" s="72"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="26">
+        <f t="shared" si="4"/>
+        <v>23.67</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>7</v>
+      </c>
+      <c r="B108" s="72"/>
+      <c r="C108" s="70">
+        <v>20230825003</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="7">
+        <v>40.54</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" s="26">
+        <f t="shared" si="4"/>
+        <v>22.969999999999992</v>
+      </c>
+      <c r="J108" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>8</v>
+      </c>
+      <c r="B109" s="72"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="7">
+        <v>40.54</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" s="26">
+        <f t="shared" si="4"/>
+        <v>22.969999999999992</v>
+      </c>
+      <c r="J109" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>9</v>
+      </c>
+      <c r="B110" s="72"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="7">
+        <v>15.26</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="26">
+        <f t="shared" si="4"/>
+        <v>8.4100000000000019</v>
+      </c>
+      <c r="J110" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>10</v>
+      </c>
+      <c r="B111" s="72"/>
+      <c r="C111" s="70">
+        <v>20230825004</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" s="32">
+        <f t="shared" si="4"/>
+        <v>17.069999999999993</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>11</v>
+      </c>
+      <c r="B112" s="72"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="32">
+        <f t="shared" si="4"/>
+        <v>17.069999999999993</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>12</v>
+      </c>
+      <c r="B113" s="72"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" s="26">
+        <f t="shared" si="4"/>
+        <v>6.1800000000000015</v>
+      </c>
+      <c r="J113" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>13</v>
+      </c>
+      <c r="B114" s="73"/>
+      <c r="C114" s="6">
+        <v>20230822003</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="31"/>
+      <c r="G114" s="9">
+        <v>6.71</v>
+      </c>
+      <c r="H114" s="31"/>
+      <c r="I114" s="49">
+        <f>I113-G114</f>
+        <v>-0.52999999999999847</v>
+      </c>
+      <c r="J114" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J97"/>
-  <mergeCells count="44">
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
+  <mergeCells count="49">
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="C84:C87"/>
     <mergeCell ref="C80:C83"/>
     <mergeCell ref="B80:B87"/>
@@ -3926,35 +4353,21 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B32:B50"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B102:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I52 I44" formula="1"/>
+    <ignoredError sqref="I52 I44 I102" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,7 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,7 +480,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,72 +556,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,18 +633,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,77 +729,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,66 +1059,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="64"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1184,112 +1183,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="5">
@@ -1309,19 +1308,19 @@
       <c r="H6" s="6">
         <v>14.83</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="72">
         <v>45145</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="69">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1339,7 +1338,7 @@
       <c r="H7" s="4">
         <v>40.82</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <f>SUM(H7-G7)</f>
         <v>24.1</v>
       </c>
@@ -1351,8 +1350,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1367,7 @@
       <c r="H8" s="3">
         <v>45.6</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1377,8 +1376,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1392,11 +1391,11 @@
       <c r="H9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <f t="shared" ref="I9:I16" si="0">SUM(H9-G9)</f>
         <v>9.5</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1404,26 +1403,26 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>15.5</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1431,26 +1430,26 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>20.53</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>4.4699999999999989</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1458,12 +1457,12 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>0.3</v>
@@ -1471,11 +1470,11 @@
       <c r="H12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1483,12 +1482,12 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>0.3</v>
@@ -1496,11 +1495,11 @@
       <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1508,8 +1507,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1523,11 +1522,11 @@
       <c r="H14" s="7">
         <v>250</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="33">
         <f t="shared" si="0"/>
         <v>8.3499999999999943</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1535,8 +1534,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1550,11 +1549,11 @@
       <c r="H15" s="7">
         <v>27.8</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <f t="shared" si="0"/>
         <v>4.120000000000001</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1562,12 +1561,12 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="6">
@@ -1576,69 +1575,69 @@
       <c r="G16" s="6">
         <v>25.61</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>28.11</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>45146</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="14" t="s">
+      <c r="I17" s="55"/>
+      <c r="J17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="72">
         <v>45147</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>20230809001</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="4">
         <v>2.6</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>502</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="74">
+      <c r="B19" s="73"/>
+      <c r="C19" s="62">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1656,11 +1655,11 @@
       <c r="H19" s="3">
         <v>177.03</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <f>H19-G19</f>
         <v>170.39000000000001</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1668,8 +1667,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1685,11 +1684,11 @@
       <c r="H20" s="3">
         <v>44.1</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <f>H20-G20</f>
         <v>6.4600000000000009</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1697,8 +1696,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1714,11 +1713,11 @@
       <c r="H21" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <f>H21-G21</f>
         <v>20.57</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1726,8 +1725,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="74">
+      <c r="B22" s="73"/>
+      <c r="C22" s="62">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1742,14 +1741,14 @@
       <c r="G22" s="7">
         <v>1.05</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="26">
+      <c r="H22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="24">
         <f>I19-G22</f>
         <v>169.34</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1757,8 +1756,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1771,10 +1770,10 @@
       <c r="G23" s="7">
         <v>5.95</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="32">
+      <c r="H23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="29">
         <f>I20-G23</f>
         <v>0.51000000000000068</v>
       </c>
@@ -1784,8 +1783,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1798,14 +1797,14 @@
       <c r="G24" s="7">
         <v>2.39</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="25">
+      <c r="H24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="23">
         <f>I21-G24</f>
         <v>18.18</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1813,8 +1812,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="74">
+      <c r="B25" s="73"/>
+      <c r="C25" s="62">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1829,14 +1828,14 @@
       <c r="G25" s="7">
         <v>127.75</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="26">
+      <c r="H25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="24">
         <f>I22-G25</f>
         <v>41.59</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1844,8 +1843,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1861,11 +1860,11 @@
       <c r="H26" s="3">
         <v>143.58000000000001</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="24">
         <f>H26-G26</f>
         <v>33.680000000000007</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1873,8 +1872,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="74">
+      <c r="B27" s="73"/>
+      <c r="C27" s="62">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1889,14 +1888,14 @@
       <c r="G27" s="7">
         <v>38.25</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="26">
+      <c r="H27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="24">
         <f>I25-G27</f>
         <v>3.3400000000000034</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1904,8 +1903,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1918,10 +1917,10 @@
       <c r="G28" s="7">
         <v>32.85</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="32">
+      <c r="H28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="29">
         <f>I26-G28</f>
         <v>0.8300000000000054</v>
       </c>
@@ -1931,8 +1930,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="74">
+      <c r="B29" s="73"/>
+      <c r="C29" s="62">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1947,94 +1946,94 @@
       <c r="G29" s="7">
         <v>15.49</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="H29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="23">
         <f>I24-G29</f>
         <v>2.6899999999999995</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>13</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>3.34</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="H30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>1</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>45152</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="15">
+      <c r="G31" s="15"/>
+      <c r="H31" s="13">
         <v>23.68</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="17" t="s">
+      <c r="I31" s="22"/>
+      <c r="J31" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="78">
+      <c r="B32" s="72">
         <v>45154</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28">
+      <c r="G32" s="27"/>
+      <c r="H32" s="26">
         <v>35.42</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29" t="s">
+      <c r="I32" s="28"/>
+      <c r="J32" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2042,8 +2041,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="74">
+      <c r="B33" s="73"/>
+      <c r="C33" s="62">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2059,11 +2058,11 @@
       <c r="H33" s="7">
         <v>25</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="23">
         <f>SUM(I9+H33-G33)</f>
         <v>25.46</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2071,8 +2070,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="85"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2086,11 +2085,11 @@
       <c r="H34" s="7">
         <v>25</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="23">
         <f>SUM(I10+H34-G34)</f>
         <v>25.46</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2098,8 +2097,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2113,11 +2112,11 @@
       <c r="H35" s="7">
         <v>25</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="23">
         <f>SUM(I11+H35-G35)</f>
         <v>21.35</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2125,8 +2124,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2135,14 +2134,14 @@
       <c r="G36" s="7">
         <v>0.09</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="H36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="18">
         <f>SUM(I12-G36)</f>
         <v>24.61</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2150,8 +2149,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="85"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2160,14 +2159,14 @@
       <c r="G37" s="7">
         <v>0.09</v>
       </c>
-      <c r="H37" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="19">
+      <c r="H37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="17">
         <f>SUM(I13-G37)</f>
         <v>24.61</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2175,8 +2174,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="86"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2187,14 +2186,14 @@
       <c r="G38" s="7">
         <v>160.44</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="19">
         <v>200</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="17">
         <f>I14+H38-G38</f>
         <v>47.91</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2202,8 +2201,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="91">
+      <c r="B39" s="73"/>
+      <c r="C39" s="65">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2216,14 +2215,14 @@
       <c r="G39" s="7">
         <v>1.42</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="37">
+      <c r="H39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="34">
         <f>I33-G39</f>
         <v>24.04</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2231,8 +2230,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="67"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2243,14 +2242,14 @@
       <c r="G40" s="7">
         <v>1.42</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="19">
+      <c r="H40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="17">
         <f t="shared" ref="I40:I49" si="1">I34-G40</f>
         <v>24.04</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2258,8 +2257,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="67"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2270,14 +2269,14 @@
       <c r="G41" s="7">
         <v>1.29</v>
       </c>
-      <c r="H41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="19">
+      <c r="H41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="17">
         <f t="shared" si="1"/>
         <v>20.060000000000002</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2285,8 +2284,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="67"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2295,14 +2294,14 @@
       <c r="G42" s="7">
         <v>0.01</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="19">
+      <c r="H42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="17">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2310,8 +2309,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="67"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2320,14 +2319,14 @@
       <c r="G43" s="7">
         <v>0.01</v>
       </c>
-      <c r="H43" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="37">
+      <c r="H43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="34">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2335,8 +2334,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="68"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2347,14 +2346,14 @@
       <c r="G44" s="7">
         <v>24.15</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="17">
         <v>25</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="30">
         <f>H44-G44</f>
         <v>0.85000000000000142</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2362,8 +2361,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="91">
+      <c r="B45" s="73"/>
+      <c r="C45" s="65">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2372,18 +2371,18 @@
       <c r="E45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="7">
         <v>3.08</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="37">
+      <c r="H45" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="34">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2391,26 +2390,26 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="67"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="7">
         <v>3.08</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="37">
+      <c r="H46" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="34">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2418,26 +2417,26 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="67"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="7">
         <v>4.09</v>
       </c>
-      <c r="H47" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="37">
+      <c r="H47" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="34">
         <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2445,24 +2444,24 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="7">
         <v>0.05</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="37">
+      <c r="H48" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="34">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2470,84 +2469,84 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="7">
         <v>0.05</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="37">
+      <c r="H49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="34">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>19</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="9" t="s">
+      <c r="B50" s="74"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="9">
+      <c r="F50" s="6"/>
+      <c r="G50" s="8">
         <v>48.13</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="41">
+      <c r="H50" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="37">
         <f>I38-G50</f>
         <v>-0.22000000000000597</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+      <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="78">
+      <c r="B51" s="72">
         <v>45157</v>
       </c>
-      <c r="C51" s="90">
+      <c r="C51" s="85">
         <v>20230816001</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="E51" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="27">
         <v>75.44</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="27">
         <v>154.02000000000001</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="31">
         <f>H51-G51</f>
         <v>78.580000000000013</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2555,8 +2554,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2570,11 +2569,11 @@
       <c r="H52" s="3">
         <v>15.3</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="24">
         <f>I15+H52-G52</f>
         <v>12.610000000000003</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2582,8 +2581,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="86"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2599,11 +2598,11 @@
       <c r="H53" s="3">
         <v>108.3</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="24">
         <f>H53-G53</f>
         <v>68.55</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2611,8 +2610,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="74">
+      <c r="B54" s="73"/>
+      <c r="C54" s="62">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2627,14 +2626,14 @@
       <c r="G54" s="3">
         <v>18.72</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="26">
+      <c r="H54" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="24">
         <f t="shared" ref="I54:I59" si="2">I51-G54</f>
         <v>59.860000000000014</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2642,8 +2641,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="85"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2654,14 +2653,14 @@
       <c r="G55" s="3">
         <v>1.7</v>
       </c>
-      <c r="H55" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="26">
+      <c r="H55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="24">
         <f t="shared" si="2"/>
         <v>10.910000000000004</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2669,8 +2668,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2683,14 +2682,14 @@
       <c r="G56" s="3">
         <v>9.85</v>
       </c>
-      <c r="H56" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="26">
+      <c r="H56" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="24">
         <f t="shared" si="2"/>
         <v>58.699999999999996</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2698,8 +2697,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="74">
+      <c r="B57" s="73"/>
+      <c r="C57" s="62">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2714,10 +2713,10 @@
       <c r="G57" s="3">
         <v>56.61</v>
       </c>
-      <c r="H57" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="32">
+      <c r="H57" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="29">
         <f t="shared" si="2"/>
         <v>3.2500000000000142</v>
       </c>
@@ -2727,8 +2726,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="85"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2739,14 +2738,14 @@
       <c r="G58" s="3">
         <v>5.12</v>
       </c>
-      <c r="H58" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="26">
+      <c r="H58" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="24">
         <f t="shared" si="2"/>
         <v>5.7900000000000036</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2754,8 +2753,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="86"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2768,14 +2767,14 @@
       <c r="G59" s="3">
         <v>29.77</v>
       </c>
-      <c r="H59" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="26">
+      <c r="H59" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="24">
         <f t="shared" si="2"/>
         <v>28.929999999999996</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2783,8 +2782,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="74">
+      <c r="B60" s="73"/>
+      <c r="C60" s="62">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2797,14 +2796,14 @@
       <c r="G60" s="7">
         <v>0.54</v>
       </c>
-      <c r="H60" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="26">
+      <c r="H60" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="24">
         <f t="shared" ref="I60:I65" si="3">I58-G60</f>
         <v>5.2500000000000036</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2812,8 +2811,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="86"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2826,14 +2825,14 @@
       <c r="G61" s="7">
         <v>3.12</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="26">
+      <c r="H61" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="24">
         <f t="shared" si="3"/>
         <v>25.809999999999995</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2841,8 +2840,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="74">
+      <c r="B62" s="73"/>
+      <c r="C62" s="62">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2855,14 +2854,14 @@
       <c r="G62" s="7">
         <v>3.41</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="26">
+      <c r="H62" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="24">
         <f t="shared" si="3"/>
         <v>1.8400000000000034</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="J62" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2870,8 +2869,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="86"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2884,14 +2883,14 @@
       <c r="G63" s="7">
         <v>19.84</v>
       </c>
-      <c r="H63" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="26">
+      <c r="H63" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="24">
         <f t="shared" si="3"/>
         <v>5.9699999999999953</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2899,8 +2898,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="74">
+      <c r="B64" s="73"/>
+      <c r="C64" s="62">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2913,14 +2912,14 @@
       <c r="G64" s="7">
         <v>1.67</v>
       </c>
-      <c r="H64" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="32">
+      <c r="H64" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="29">
         <f t="shared" si="3"/>
         <v>0.17000000000000348</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2928,8 +2927,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="86"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2942,14 +2941,14 @@
       <c r="G65" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="25">
+      <c r="H65" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="23">
         <f t="shared" si="3"/>
         <v>0.86999999999999567</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2957,7 +2956,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="79"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2974,11 +2973,11 @@
       <c r="H66" s="3">
         <v>175</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="24">
         <f>H66-G66</f>
         <v>88.9</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2986,7 +2985,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="79"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -3000,10 +2999,10 @@
       <c r="G67" s="3">
         <v>28.8</v>
       </c>
-      <c r="H67" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="32">
+      <c r="H67" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="29">
         <f>I66-G67</f>
         <v>60.100000000000009</v>
       </c>
@@ -3013,8 +3012,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="74">
+      <c r="B68" s="73"/>
+      <c r="C68" s="62">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3027,79 +3026,81 @@
       <c r="G68" s="3">
         <v>63.96</v>
       </c>
-      <c r="H68" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="48">
+      <c r="H68" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="43">
         <f>I67-G68</f>
         <v>-3.8599999999999923</v>
       </c>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="A69" s="15">
         <v>19</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="9" t="s">
+      <c r="B69" s="74"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>81.64</v>
       </c>
       <c r="H69" s="6">
-        <v>77.44</v>
-      </c>
-      <c r="I69" s="49">
+        <v>81.64</v>
+      </c>
+      <c r="I69" s="50">
         <f>H69-G69</f>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="J69" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="29">
+      <c r="A70" s="27">
         <v>1</v>
       </c>
-      <c r="B70" s="78">
+      <c r="B70" s="72">
         <v>45160</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="26">
         <v>20230814001</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="29" t="s">
+      <c r="E70" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="26">
         <v>94.9</v>
       </c>
-      <c r="H70" s="29">
+      <c r="H70" s="27">
         <v>95.77</v>
       </c>
-      <c r="I70" s="50">
+      <c r="I70" s="45">
         <f>H70-G70</f>
         <v>0.86999999999999034</v>
       </c>
-      <c r="J70" s="29"/>
+      <c r="J70" s="27"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="91">
+      <c r="B71" s="73"/>
+      <c r="C71" s="65">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3115,11 +3116,11 @@
       <c r="H71" s="3">
         <v>25</v>
       </c>
-      <c r="I71" s="25">
+      <c r="I71" s="23">
         <f>I45+H71-G71</f>
         <v>27.86</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3127,26 +3128,26 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="68"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="7">
         <v>18.100000000000001</v>
       </c>
       <c r="H72" s="7">
         <v>25</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="24">
         <f>I46+H72-G72</f>
         <v>27.86</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3154,8 +3155,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="91">
+      <c r="B73" s="73"/>
+      <c r="C73" s="65">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3164,18 +3165,18 @@
       <c r="E73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="3"/>
       <c r="G73" s="7">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H73" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="26">
+      <c r="H73" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="24">
         <f>I71-G73</f>
         <v>23.38</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="J73" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3183,26 +3184,26 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="68"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="8"/>
+      <c r="F74" s="3"/>
       <c r="G74" s="7">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H74" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="26">
+      <c r="H74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="24">
         <f>I72-G74</f>
         <v>23.38</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3210,8 +3211,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="79"/>
-      <c r="C75" s="91">
+      <c r="B75" s="73"/>
+      <c r="C75" s="65">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3220,18 +3221,18 @@
       <c r="E75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="8"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="7">
         <v>13.57</v>
       </c>
-      <c r="H75" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I75" s="25">
+      <c r="H75" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="23">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3239,59 +3240,59 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="9">
+      <c r="F76" s="6"/>
+      <c r="G76" s="8">
         <v>13.57</v>
       </c>
-      <c r="H76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="51">
+      <c r="H76" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="46">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="38">
+      <c r="A77" s="35">
         <v>1</v>
       </c>
-      <c r="B77" s="78">
+      <c r="B77" s="72">
         <v>45161</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="35">
         <v>20230816001</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="38" t="s">
+      <c r="E77" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="35">
         <v>30.4</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="35">
         <v>60.72</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I77" s="47">
         <f>H77-G77</f>
         <v>30.32</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="J77" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3299,7 +3300,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="79"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3315,14 +3316,14 @@
       <c r="G78" s="3">
         <v>7.54</v>
       </c>
-      <c r="H78" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="26">
+      <c r="H78" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="24">
         <f>I77-G78</f>
         <v>22.78</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="J78" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3330,7 +3331,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="80"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3343,132 +3344,132 @@
       <c r="F79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="8">
         <v>22.78</v>
       </c>
-      <c r="H79" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" s="55">
+      <c r="H79" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="50">
         <f>I78-G79</f>
         <v>0</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J79" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="28">
+      <c r="A80" s="26">
         <v>1</v>
       </c>
-      <c r="B80" s="81">
+      <c r="B80" s="82">
         <v>45162</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="80">
         <v>20230816001</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="10">
+      <c r="F80" s="4"/>
+      <c r="G80" s="9">
         <v>321.70999999999998</v>
       </c>
       <c r="H80" s="4">
         <v>275</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="48">
         <f>H80-G80</f>
         <v>-46.70999999999998</v>
       </c>
-      <c r="J80" s="20"/>
+      <c r="J80" s="18"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="B81" s="82"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="8"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="7">
         <v>16.37</v>
       </c>
       <c r="H81" s="3">
         <v>25</v>
       </c>
-      <c r="I81" s="26">
+      <c r="I81" s="24">
         <f>I47+H81-G81</f>
         <v>24.599999999999998</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="J81" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="89"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="3"/>
       <c r="G82" s="7">
         <v>0.2</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I82" s="26">
+      <c r="H82" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="24">
         <f>I48-G82</f>
         <v>24.349999999999998</v>
       </c>
-      <c r="J82" s="19" t="s">
+      <c r="J82" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="89"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="7">
         <v>0.2</v>
       </c>
-      <c r="H83" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="26">
+      <c r="H83" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="24">
         <f>I49-G83</f>
         <v>24.349999999999998</v>
       </c>
-      <c r="J83" s="19" t="s">
+      <c r="J83" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <v>5</v>
       </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="69">
+      <c r="B84" s="83"/>
+      <c r="C84" s="78">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3477,166 +3478,166 @@
       <c r="E84" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="8"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="7">
         <v>79.8</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84" s="48">
+      <c r="H84" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="43">
         <f>I80-G84</f>
         <v>-126.50999999999998</v>
       </c>
-      <c r="J84" s="8"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="69"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="8"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="7">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H85" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I85" s="25">
+      <c r="H85" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="23">
         <f>I81-G85</f>
         <v>20.54</v>
       </c>
-      <c r="J85" s="19" t="s">
+      <c r="J85" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <v>7</v>
       </c>
-      <c r="B86" s="82"/>
-      <c r="C86" s="69"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="7">
         <v>0.06</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I86" s="25">
+      <c r="H86" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="23">
         <f>I82-G86</f>
         <v>24.29</v>
       </c>
-      <c r="J86" s="19" t="s">
+      <c r="J86" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15">
+      <c r="A87" s="13">
         <v>8</v>
       </c>
       <c r="B87" s="84"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="79"/>
+      <c r="D87" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="9">
+      <c r="E87" s="8"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="8">
         <v>0.06</v>
       </c>
-      <c r="H87" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" s="51">
+      <c r="H87" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="46">
         <f>I83-G87</f>
         <v>24.29</v>
       </c>
-      <c r="J87" s="27" t="s">
+      <c r="J87" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15">
+      <c r="A88" s="13">
         <v>1</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>45164</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="57">
         <v>20230822003</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="17" t="s">
+      <c r="E88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="13">
         <v>62.43</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="40">
         <v>62.43</v>
       </c>
-      <c r="I88" s="56">
+      <c r="I88" s="51">
         <f>H88-G88</f>
         <v>0</v>
       </c>
-      <c r="J88" s="27" t="s">
+      <c r="J88" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="28">
+      <c r="A89" s="26">
         <v>1</v>
       </c>
-      <c r="B89" s="81">
+      <c r="B89" s="82">
         <v>45166</v>
       </c>
-      <c r="C89" s="66">
+      <c r="C89" s="89">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>12.4</v>
       </c>
       <c r="H89" s="4">
         <v>25</v>
       </c>
-      <c r="I89" s="36">
+      <c r="I89" s="33">
         <f>I75+H89-G89</f>
         <v>22.410000000000004</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <v>2</v>
       </c>
-      <c r="B90" s="82"/>
-      <c r="C90" s="67"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3650,20 +3651,20 @@
       <c r="H90" s="3">
         <v>25</v>
       </c>
-      <c r="I90" s="25">
+      <c r="I90" s="23">
         <f>I76+H90-G90</f>
         <v>22.410000000000004</v>
       </c>
-      <c r="J90" s="19" t="s">
+      <c r="J90" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <v>3</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="67"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3677,20 +3678,20 @@
       <c r="H91" s="3">
         <v>25</v>
       </c>
-      <c r="I91" s="26">
+      <c r="I91" s="24">
         <f>I85+H91-G91</f>
         <v>29.08</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="J91" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="A92" s="9">
         <v>4</v>
       </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="67"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3699,23 +3700,23 @@
       <c r="G92" s="7">
         <v>0.2</v>
       </c>
-      <c r="H92" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I92" s="26">
+      <c r="H92" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="24">
         <f>I86-G92</f>
         <v>24.09</v>
       </c>
-      <c r="J92" s="19" t="s">
+      <c r="J92" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <v>5</v>
       </c>
-      <c r="B93" s="82"/>
-      <c r="C93" s="68"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3724,23 +3725,23 @@
       <c r="G93" s="7">
         <v>0.2</v>
       </c>
-      <c r="H93" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I93" s="26">
+      <c r="H93" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" s="24">
         <f>I87-G93</f>
         <v>24.09</v>
       </c>
-      <c r="J93" s="19" t="s">
+      <c r="J93" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="74">
+      <c r="B94" s="83"/>
+      <c r="C94" s="62">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3753,63 +3754,63 @@
       <c r="G94" s="7">
         <v>12.26</v>
       </c>
-      <c r="H94" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I94" s="32">
+      <c r="H94" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" s="29">
         <f>I91-G94</f>
         <v>16.82</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <v>7</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="85"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="43">
+      <c r="E95" s="39"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="39">
         <v>0.18</v>
       </c>
-      <c r="H95" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I95" s="54">
+      <c r="H95" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="49">
         <f>I92-G95</f>
         <v>23.91</v>
       </c>
-      <c r="J95" s="45"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>8</v>
-      </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="86"/>
+      <c r="A96" s="9">
+        <v>8</v>
+      </c>
+      <c r="B96" s="88"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="43">
+      <c r="E96" s="39"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="39">
         <v>0.18</v>
       </c>
-      <c r="H96" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I96" s="54">
+      <c r="H96" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="49">
         <f>I93-G96</f>
         <v>23.91</v>
       </c>
-      <c r="J96" s="45"/>
+      <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15">
+      <c r="A97" s="13">
         <v>9</v>
       </c>
       <c r="B97" s="84"/>
@@ -3825,49 +3826,49 @@
       <c r="F97" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="8">
         <v>168.98</v>
       </c>
-      <c r="H97" s="9">
-        <f>48.9 + 34.56</f>
-        <v>83.460000000000008</v>
-      </c>
-      <c r="I97" s="49">
+      <c r="H97" s="8">
+        <f>48.9 + 34.56 + 25.54</f>
+        <v>109</v>
+      </c>
+      <c r="I97" s="44">
         <f>H97-G97</f>
-        <v>-85.519999999999982</v>
+        <v>-59.97999999999999</v>
       </c>
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="28">
+      <c r="A98" s="26">
         <v>1</v>
       </c>
-      <c r="B98" s="78">
+      <c r="B98" s="72">
         <v>45167</v>
       </c>
-      <c r="C98" s="57">
+      <c r="C98" s="52">
         <v>20230822003</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D98" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="38">
+      <c r="E98" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="35">
         <v>0.12</v>
       </c>
-      <c r="G98" s="58">
+      <c r="G98" s="53">
         <v>20.53</v>
       </c>
-      <c r="H98" s="58">
+      <c r="H98" s="53">
         <v>42.89</v>
       </c>
-      <c r="I98" s="59">
+      <c r="I98" s="54">
         <f>I65+H98-G98</f>
         <v>23.229999999999997</v>
       </c>
-      <c r="J98" s="39" t="s">
+      <c r="J98" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3875,7 +3876,7 @@
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="79"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3891,23 +3892,23 @@
       <c r="G99" s="7">
         <v>12.95</v>
       </c>
-      <c r="H99" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I99" s="26">
+      <c r="H99" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="24">
         <f>I98-G99</f>
         <v>10.279999999999998</v>
       </c>
-      <c r="J99" s="19" t="s">
+      <c r="J99" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="47">
+      <c r="A100" s="42">
         <v>3</v>
       </c>
-      <c r="B100" s="79"/>
-      <c r="C100" s="76">
+      <c r="B100" s="73"/>
+      <c r="C100" s="86">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3922,68 +3923,68 @@
       <c r="G100" s="7">
         <v>11.32</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="48">
+      <c r="H100" s="17"/>
+      <c r="I100" s="43">
         <f>I99-G100</f>
         <v>-1.0400000000000027</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>4</v>
       </c>
-      <c r="B101" s="80"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="17" t="s">
+      <c r="B101" s="74"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="17" t="s">
+      <c r="E101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <v>34.369999999999997</v>
       </c>
       <c r="H101" s="6">
         <v>36.78</v>
       </c>
-      <c r="I101" s="55">
+      <c r="I101" s="50">
         <f>H101-G101</f>
         <v>2.4100000000000037</v>
       </c>
       <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="27">
         <v>1</v>
       </c>
-      <c r="B102" s="71">
+      <c r="B102" s="91">
         <v>45168</v>
       </c>
-      <c r="C102" s="66">
+      <c r="C102" s="89">
         <v>20230825001</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="10">
+      <c r="F102" s="27"/>
+      <c r="G102" s="26">
         <v>6.84</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="26">
         <v>50</v>
       </c>
-      <c r="I102" s="23">
+      <c r="I102" s="31">
         <f>I89+H102-G102</f>
         <v>65.569999999999993</v>
       </c>
-      <c r="J102" s="20" t="s">
+      <c r="J102" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3991,8 +3992,8 @@
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="72"/>
-      <c r="C103" s="67"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
@@ -4006,11 +4007,11 @@
       <c r="H103" s="7">
         <v>50</v>
       </c>
-      <c r="I103" s="26">
+      <c r="I103" s="24">
         <f>I90+H103-G103</f>
         <v>65.569999999999993</v>
       </c>
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4018,8 +4019,8 @@
       <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B104" s="72"/>
-      <c r="C104" s="68"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="7" t="s">
         <v>32</v>
       </c>
@@ -4033,11 +4034,11 @@
       <c r="H104" s="7">
         <v>28.5</v>
       </c>
-      <c r="I104" s="26">
+      <c r="I104" s="24">
         <f>H104-G104</f>
         <v>24.8</v>
       </c>
-      <c r="J104" s="19" t="s">
+      <c r="J104" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4045,8 +4046,8 @@
       <c r="A105" s="3">
         <v>4</v>
       </c>
-      <c r="B105" s="72"/>
-      <c r="C105" s="69">
+      <c r="B105" s="92"/>
+      <c r="C105" s="78">
         <v>20230825002</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4059,14 +4060,14 @@
       <c r="G105" s="7">
         <v>2.06</v>
       </c>
-      <c r="H105" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" s="26">
+      <c r="H105" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="24">
         <f t="shared" ref="I105:I113" si="4">I102-G105</f>
         <v>63.509999999999991</v>
       </c>
-      <c r="J105" s="19" t="s">
+      <c r="J105" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4074,8 +4075,8 @@
       <c r="A106" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="69"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="3" t="s">
         <v>20</v>
       </c>
@@ -4086,14 +4087,14 @@
       <c r="G106" s="7">
         <v>2.06</v>
       </c>
-      <c r="H106" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" s="26">
+      <c r="H106" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="24">
         <f t="shared" si="4"/>
         <v>63.509999999999991</v>
       </c>
-      <c r="J106" s="19" t="s">
+      <c r="J106" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4101,8 +4102,8 @@
       <c r="A107" s="3">
         <v>6</v>
       </c>
-      <c r="B107" s="72"/>
-      <c r="C107" s="69"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="7" t="s">
         <v>32</v>
       </c>
@@ -4113,14 +4114,14 @@
       <c r="G107" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H107" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I107" s="26">
+      <c r="H107" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="24">
         <f t="shared" si="4"/>
         <v>23.67</v>
       </c>
-      <c r="J107" s="19" t="s">
+      <c r="J107" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4128,8 +4129,8 @@
       <c r="A108" s="3">
         <v>7</v>
       </c>
-      <c r="B108" s="72"/>
-      <c r="C108" s="70">
+      <c r="B108" s="92"/>
+      <c r="C108" s="90">
         <v>20230825003</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4142,14 +4143,14 @@
       <c r="G108" s="7">
         <v>40.54</v>
       </c>
-      <c r="H108" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I108" s="26">
+      <c r="H108" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" s="24">
         <f t="shared" si="4"/>
         <v>22.969999999999992</v>
       </c>
-      <c r="J108" s="19" t="s">
+      <c r="J108" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4157,8 +4158,8 @@
       <c r="A109" s="3">
         <v>8</v>
       </c>
-      <c r="B109" s="72"/>
-      <c r="C109" s="70"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="3" t="s">
         <v>20</v>
       </c>
@@ -4169,14 +4170,14 @@
       <c r="G109" s="7">
         <v>40.54</v>
       </c>
-      <c r="H109" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I109" s="26">
+      <c r="H109" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" s="24">
         <f t="shared" si="4"/>
         <v>22.969999999999992</v>
       </c>
-      <c r="J109" s="19" t="s">
+      <c r="J109" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4184,8 +4185,8 @@
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="72"/>
-      <c r="C110" s="70"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="7" t="s">
         <v>32</v>
       </c>
@@ -4196,14 +4197,14 @@
       <c r="G110" s="7">
         <v>15.26</v>
       </c>
-      <c r="H110" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I110" s="26">
+      <c r="H110" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="24">
         <f t="shared" si="4"/>
         <v>8.4100000000000019</v>
       </c>
-      <c r="J110" s="19" t="s">
+      <c r="J110" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4211,8 +4212,8 @@
       <c r="A111" s="3">
         <v>10</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="70">
+      <c r="B111" s="92"/>
+      <c r="C111" s="90">
         <v>20230825004</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4225,10 +4226,10 @@
       <c r="G111" s="7">
         <v>5.9</v>
       </c>
-      <c r="H111" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I111" s="32">
+      <c r="H111" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" s="29">
         <f t="shared" si="4"/>
         <v>17.069999999999993</v>
       </c>
@@ -4238,8 +4239,8 @@
       <c r="A112" s="3">
         <v>11</v>
       </c>
-      <c r="B112" s="72"/>
-      <c r="C112" s="70"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
@@ -4250,10 +4251,10 @@
       <c r="G112" s="7">
         <v>5.9</v>
       </c>
-      <c r="H112" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="32">
+      <c r="H112" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="29">
         <f t="shared" si="4"/>
         <v>17.069999999999993</v>
       </c>
@@ -4263,26 +4264,26 @@
       <c r="A113" s="3">
         <v>12</v>
       </c>
-      <c r="B113" s="72"/>
-      <c r="C113" s="70"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="8"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="7">
         <v>2.23</v>
       </c>
-      <c r="H113" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I113" s="26">
+      <c r="H113" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" s="24">
         <f t="shared" si="4"/>
         <v>6.1800000000000015</v>
       </c>
-      <c r="J113" s="19" t="s">
+      <c r="J113" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4290,52 +4291,72 @@
       <c r="A114" s="6">
         <v>13</v>
       </c>
-      <c r="B114" s="73"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="6">
         <v>20230822003</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="31"/>
-      <c r="G114" s="9">
+      <c r="F114" s="6"/>
+      <c r="G114" s="8">
         <v>6.71</v>
       </c>
-      <c r="H114" s="31"/>
-      <c r="I114" s="49">
+      <c r="H114" s="6"/>
+      <c r="I114" s="44">
         <f>I113-G114</f>
         <v>-0.52999999999999847</v>
       </c>
-      <c r="J114" s="31"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
+        <v>1</v>
+      </c>
+      <c r="B115" s="14">
+        <v>45169</v>
+      </c>
+      <c r="C115" s="15">
+        <v>20230825003</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="13">
+        <v>68.09</v>
+      </c>
+      <c r="H115" s="15">
+        <v>33.96</v>
+      </c>
+      <c r="I115" s="94">
+        <f>H115-G115</f>
+        <v>-34.130000000000003</v>
+      </c>
+      <c r="J115" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J97"/>
   <mergeCells count="49">
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C84:C87"/>
@@ -4352,17 +4373,28 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C7:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
+++ b/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL/LAPORAN PENGAMBILAN MATERIAL DEPT KABEL.xlsx
@@ -621,6 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,27 +636,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,75 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,66 +1059,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1183,11 +1183,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
+      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,87 +1205,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1317,10 +1317,10 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="75">
         <v>45145</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="92">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1350,8 +1350,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1376,8 +1376,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1430,8 +1430,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1457,8 +1457,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1507,8 +1507,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1534,8 +1534,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1561,8 +1561,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="75">
         <v>45147</v>
       </c>
       <c r="C18" s="16">
@@ -1636,8 +1636,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="62">
+      <c r="B19" s="76"/>
+      <c r="C19" s="71">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1667,8 +1667,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1696,8 +1696,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1725,8 +1725,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="62">
+      <c r="B22" s="76"/>
+      <c r="C22" s="71">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1756,8 +1756,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1783,8 +1783,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1812,8 +1812,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="62">
+      <c r="B25" s="76"/>
+      <c r="C25" s="71">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1843,8 +1843,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1872,8 +1872,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="62">
+      <c r="B27" s="76"/>
+      <c r="C27" s="71">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1903,8 +1903,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1930,8 +1930,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="62">
+      <c r="B29" s="76"/>
+      <c r="C29" s="71">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1961,8 +1961,8 @@
       <c r="A30" s="8">
         <v>13</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="75">
         <v>45154</v>
       </c>
       <c r="C32" s="27"/>
@@ -2041,8 +2041,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="62">
+      <c r="B33" s="76"/>
+      <c r="C33" s="71">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2070,8 +2070,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2097,8 +2097,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2124,8 +2124,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2149,8 +2149,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2174,8 +2174,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="65">
+      <c r="B39" s="76"/>
+      <c r="C39" s="88">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2230,8 +2230,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2284,8 +2284,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2309,8 +2309,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2334,8 +2334,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2361,8 +2361,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="65">
+      <c r="B45" s="76"/>
+      <c r="C45" s="88">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2390,8 +2390,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2444,8 +2444,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2469,8 +2469,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2494,8 +2494,8 @@
       <c r="A50" s="8">
         <v>19</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2521,10 +2521,10 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="72">
+      <c r="B51" s="75">
         <v>45157</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="87">
         <v>20230816001</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -2554,8 +2554,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2581,8 +2581,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="83"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2610,8 +2610,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="62">
+      <c r="B54" s="76"/>
+      <c r="C54" s="71">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2641,8 +2641,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="64"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2668,8 +2668,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="63"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2697,8 +2697,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="62">
+      <c r="B57" s="76"/>
+      <c r="C57" s="71">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2726,8 +2726,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2753,8 +2753,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="83"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2782,8 +2782,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="62">
+      <c r="B60" s="76"/>
+      <c r="C60" s="71">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2811,8 +2811,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="83"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2840,8 +2840,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="62">
+      <c r="B62" s="76"/>
+      <c r="C62" s="71">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2869,8 +2869,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="63"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="83"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2898,8 +2898,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="62">
+      <c r="B64" s="76"/>
+      <c r="C64" s="71">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2927,8 +2927,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="73"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="73"/>
+      <c r="B67" s="76"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -3012,8 +3012,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="62">
+      <c r="B68" s="76"/>
+      <c r="C68" s="71">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3039,8 +3039,8 @@
       <c r="A69" s="15">
         <v>19</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="77"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="8" t="s">
         <v>43</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="A70" s="27">
         <v>1</v>
       </c>
-      <c r="B70" s="72">
+      <c r="B70" s="75">
         <v>45160</v>
       </c>
       <c r="C70" s="26">
@@ -3099,8 +3099,8 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="65">
+      <c r="B71" s="76"/>
+      <c r="C71" s="88">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3128,8 +3128,8 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="67"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
@@ -3155,8 +3155,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="73"/>
-      <c r="C73" s="65">
+      <c r="B73" s="76"/>
+      <c r="C73" s="88">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3184,8 +3184,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3211,8 +3211,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="65">
+      <c r="B75" s="76"/>
+      <c r="C75" s="88">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3240,8 +3240,8 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="68"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="A77" s="35">
         <v>1</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B77" s="75">
         <v>45161</v>
       </c>
       <c r="C77" s="35">
@@ -3300,7 +3300,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="73"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="74"/>
+      <c r="B79" s="77"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3362,10 +3362,10 @@
       <c r="A80" s="26">
         <v>1</v>
       </c>
-      <c r="B80" s="82">
+      <c r="B80" s="78">
         <v>45162</v>
       </c>
-      <c r="C80" s="80">
+      <c r="C80" s="85">
         <v>20230816001</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -3391,8 +3391,8 @@
       <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="81"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="86"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3418,8 +3418,8 @@
       <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="B82" s="83"/>
-      <c r="C82" s="81"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="86"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
@@ -3443,8 +3443,8 @@
       <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="81"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="86"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
@@ -3468,8 +3468,8 @@
       <c r="A84" s="9">
         <v>5</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="78">
+      <c r="B84" s="79"/>
+      <c r="C84" s="66">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3495,8 +3495,8 @@
       <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="78"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
@@ -3522,8 +3522,8 @@
       <c r="A86" s="9">
         <v>7</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="78"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3547,8 +3547,8 @@
       <c r="A87" s="13">
         <v>8</v>
       </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="79"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="84"/>
       <c r="D87" s="8" t="s">
         <v>23</v>
       </c>
@@ -3605,10 +3605,10 @@
       <c r="A89" s="26">
         <v>1</v>
       </c>
-      <c r="B89" s="82">
+      <c r="B89" s="78">
         <v>45166</v>
       </c>
-      <c r="C89" s="89">
+      <c r="C89" s="63">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3636,8 +3636,8 @@
       <c r="A90" s="9">
         <v>2</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="66"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3663,8 +3663,8 @@
       <c r="A91" s="9">
         <v>3</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="66"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3690,8 +3690,8 @@
       <c r="A92" s="9">
         <v>4</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="A93" s="9">
         <v>5</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="67"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="62">
+      <c r="B94" s="79"/>
+      <c r="C94" s="71">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3767,8 +3767,8 @@
       <c r="A95" s="9">
         <v>7</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="64"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="82"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
@@ -3790,8 +3790,8 @@
       <c r="A96" s="9">
         <v>8</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="63"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="83"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="A97" s="13">
         <v>9</v>
       </c>
-      <c r="B97" s="84"/>
+      <c r="B97" s="81"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="A98" s="26">
         <v>1</v>
       </c>
-      <c r="B98" s="72">
+      <c r="B98" s="75">
         <v>45167</v>
       </c>
       <c r="C98" s="52">
@@ -3876,7 +3876,7 @@
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="73"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3907,8 +3907,8 @@
       <c r="A100" s="42">
         <v>3</v>
       </c>
-      <c r="B100" s="73"/>
-      <c r="C100" s="86">
+      <c r="B100" s="76"/>
+      <c r="C100" s="73">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3934,8 +3934,8 @@
       <c r="A101" s="8">
         <v>4</v>
       </c>
-      <c r="B101" s="74"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="15" t="s">
         <v>16</v>
       </c>
@@ -3961,10 +3961,10 @@
       <c r="A102" s="27">
         <v>1</v>
       </c>
-      <c r="B102" s="91">
+      <c r="B102" s="68">
         <v>45168</v>
       </c>
-      <c r="C102" s="89">
+      <c r="C102" s="63">
         <v>20230825001</v>
       </c>
       <c r="D102" s="27" t="s">
@@ -3992,8 +3992,8 @@
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="66"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
@@ -4019,8 +4019,8 @@
       <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="67"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="7" t="s">
         <v>32</v>
       </c>
@@ -4046,8 +4046,8 @@
       <c r="A105" s="3">
         <v>4</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="78">
+      <c r="B105" s="69"/>
+      <c r="C105" s="66">
         <v>20230825002</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4075,8 +4075,8 @@
       <c r="A106" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="92"/>
-      <c r="C106" s="78"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="66"/>
       <c r="D106" s="3" t="s">
         <v>20</v>
       </c>
@@ -4102,8 +4102,8 @@
       <c r="A107" s="3">
         <v>6</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="78"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="7" t="s">
         <v>32</v>
       </c>
@@ -4129,8 +4129,8 @@
       <c r="A108" s="3">
         <v>7</v>
       </c>
-      <c r="B108" s="92"/>
-      <c r="C108" s="90">
+      <c r="B108" s="69"/>
+      <c r="C108" s="67">
         <v>20230825003</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4158,8 +4158,8 @@
       <c r="A109" s="3">
         <v>8</v>
       </c>
-      <c r="B109" s="92"/>
-      <c r="C109" s="90"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="3" t="s">
         <v>20</v>
       </c>
@@ -4185,8 +4185,8 @@
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="92"/>
-      <c r="C110" s="90"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="67"/>
       <c r="D110" s="7" t="s">
         <v>32</v>
       </c>
@@ -4212,8 +4212,8 @@
       <c r="A111" s="3">
         <v>10</v>
       </c>
-      <c r="B111" s="92"/>
-      <c r="C111" s="90">
+      <c r="B111" s="69"/>
+      <c r="C111" s="67">
         <v>20230825004</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4239,8 +4239,8 @@
       <c r="A112" s="3">
         <v>11</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="67"/>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A113" s="3">
         <v>12</v>
       </c>
-      <c r="B113" s="92"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="7" t="s">
         <v>32</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="A114" s="6">
         <v>13</v>
       </c>
-      <c r="B114" s="93"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="6">
         <v>20230822003</v>
       </c>
@@ -4337,26 +4337,42 @@
       <c r="H115" s="15">
         <v>33.96</v>
       </c>
-      <c r="I115" s="94">
+      <c r="I115" s="58">
         <f>H115-G115</f>
         <v>-34.130000000000003</v>
       </c>
       <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:J97"/>
   <mergeCells count="49">
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B102:B114"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C84:C87"/>
@@ -4373,28 +4389,17 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B102:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
